--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>638758.3577270742</v>
+        <v>632774.9729700212</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8939234.59727798</v>
+        <v>8939234.597277975</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9591322.904911423</v>
+        <v>9591322.904911427</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>11.40757520654154</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>276.0079748914922</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -746,7 +746,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>66.84029276655205</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -788,7 +788,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>65.33963711546097</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>54.65872702774717</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914566</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>60.4257571990784</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>368.606348459118</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>99.51086798339259</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>109.2793415415783</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>131.6846499321096</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>116.8763835457719</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.50007434161517</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>384.4156258576012</v>
       </c>
     </row>
     <row r="9">
@@ -1223,7 +1223,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
-        <v>54.94575484202996</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
         <v>118.8592197488542</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -1271,7 +1271,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>220.3146016126436</v>
+        <v>175.7507410698908</v>
       </c>
       <c r="W9" t="n">
         <v>227.816073408046</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -1350,10 +1350,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914567</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>128.4093493985456</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>380.4116308172585</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>136.8378531040666</v>
       </c>
       <c r="T11" t="n">
         <v>215.8847404892529</v>
@@ -1435,10 +1435,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>118.2015357431744</v>
       </c>
       <c r="H12" t="n">
-        <v>81.06259933844458</v>
+        <v>81.06259933844474</v>
       </c>
       <c r="I12" t="n">
         <v>26.24943651580975</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1819754130301</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>97.86992168242006</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>191.1788702526329</v>
+        <v>65.56082641919963</v>
       </c>
       <c r="T13" t="n">
         <v>231.0059641921533</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5543285581185</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>217.5864896035539</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>346.3619812681363</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>407.8019204350209</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>308.2535983959666</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29.38734390797132</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>136.8378531040666</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0968656679989</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -1675,7 +1675,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -1779,7 +1779,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0201331842246</v>
+        <v>3.104519290909904</v>
       </c>
       <c r="H16" t="n">
         <v>149.021494497001</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>152.7818116509216</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>146.2159914013736</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
@@ -1861,7 +1861,7 @@
         <v>407.8019204350209</v>
       </c>
       <c r="H17" t="n">
-        <v>308.2535983959666</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>89.56472275210685</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>220.763274627074</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047346</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
         <v>135.0820259802211</v>
@@ -2004,25 +2004,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>8.9427259021137</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>149.021494497001</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1819754130301</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.86992168242006</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>282.5543285581185</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.14590033861189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>407.8019204350209</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>308.2535983959666</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>89.56472275210685</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>136.8378531040666</v>
+        <v>99.19000973362836</v>
       </c>
       <c r="T20" t="n">
-        <v>92.91097340339806</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0968656679989</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>118.2015357431744</v>
       </c>
       <c r="H21" t="n">
-        <v>81.06259933844474</v>
+        <v>81.06259933844458</v>
       </c>
       <c r="I21" t="n">
         <v>26.24943651580975</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>52.27136696844991</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>157.2306655964213</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.86992168242006</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>191.1788702526329</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>231.0059641921533</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5543285581185</v>
@@ -2304,7 +2304,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>249.9485186041814</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>407.8019204350209</v>
+        <v>232.4091776604809</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>308.2535983959666</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>89.56472275210685</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>215.8847404892529</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0968656679989</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>231.0059641921533</v>
+        <v>119.7056635292864</v>
       </c>
       <c r="U25" t="n">
         <v>282.5543285581185</v>
@@ -2541,7 +2541,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>120.4392183319798</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>221.3045238537395</v>
+        <v>380.7654855964617</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>136.8378531040666</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>215.8847404892529</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0968656679989</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0201331842246</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>18.81379547742819</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>191.1788702526329</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>231.0059641921533</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5543285581185</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -2781,7 +2781,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>17.60015970975358</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>407.8019204350209</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>253.0968656679989</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>18.51569535999272</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>140.3143757676073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0201331842246</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>191.1788702526329</v>
       </c>
       <c r="T31" t="n">
-        <v>231.0059641921533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5543285581185</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>237.0186331670068</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>109.5806399086562</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>16.04146380813574</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>407.8019204350209</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>308.2535983959666</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>136.8378531040666</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>215.8847404892529</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>142.9260433065057</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>81.06259933844458</v>
       </c>
       <c r="I33" t="n">
-        <v>26.24943651580975</v>
+        <v>26.24943651581035</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>120.1174974337396</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0201331842246</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>149.021494497001</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1819754130301</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>154.1194291662355</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5543285581185</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>215.8847404892529</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0968656679989</v>
       </c>
       <c r="V35" t="n">
-        <v>258.9495800803523</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>157.2570186044961</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>172.5630456075553</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9192432035609</v>
+        <v>207.9192432035604</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0201331842246</v>
@@ -3444,7 +3444,7 @@
         <v>149.021494497001</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.41921269702853</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>191.1788702526329</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>231.0059641921533</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5543285581185</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>47.08284649242859</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>407.8019204350209</v>
+        <v>237.3679159672809</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>89.56472275210685</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>156.4124343313002</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1819754130301</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4046286877792</v>
+        <v>119.7056635292864</v>
       </c>
       <c r="U40" t="n">
         <v>282.5543285581185</v>
@@ -3729,7 +3729,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>26.45514532491001</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.8019204350209</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>308.2535983959666</v>
       </c>
       <c r="I41" t="n">
         <v>89.56472275210685</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>18.64493454972228</v>
+        <v>136.8378531040666</v>
       </c>
       <c r="T41" t="n">
         <v>215.8847404892529</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0968656679989</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>121.3651783815242</v>
+        <v>121.3651783815246</v>
       </c>
       <c r="T42" t="n">
         <v>172.5630456075553</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>50.40098682834601</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>97.86992168242006</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>191.1788702526329</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>231.0059641921533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5543285581185</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -3963,10 +3963,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.2713669684499</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>407.8019204350209</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>19.20666764995921</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>215.8847404892529</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>95.52292835983353</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965523</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>121.3651783815242</v>
+        <v>121.3651783815246</v>
       </c>
       <c r="T45" t="n">
         <v>172.5630456075553</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0201331842246</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>61.25240663328908</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5543285581185</v>
+        <v>282.1405058231926</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450.6045188446832</v>
+        <v>1154.759342324533</v>
       </c>
       <c r="C2" t="n">
-        <v>57.42901734761381</v>
+        <v>1154.759342324533</v>
       </c>
       <c r="D2" t="n">
-        <v>45.90621410868296</v>
+        <v>1154.759342324533</v>
       </c>
       <c r="E2" t="n">
-        <v>45.90621410868296</v>
+        <v>1154.759342324533</v>
       </c>
       <c r="F2" t="n">
-        <v>45.90621410868296</v>
+        <v>737.8649038545103</v>
       </c>
       <c r="G2" t="n">
-        <v>45.90621410868296</v>
+        <v>324.7021483425135</v>
       </c>
       <c r="H2" t="n">
         <v>45.90621410868296</v>
@@ -4339,16 +4339,16 @@
         <v>1042.858634763502</v>
       </c>
       <c r="M2" t="n">
-        <v>1588.859534808082</v>
+        <v>1419.311929665164</v>
       </c>
       <c r="N2" t="n">
-        <v>1670.425544400871</v>
+        <v>1947.123213302626</v>
       </c>
       <c r="O2" t="n">
-        <v>2110.465145293199</v>
+        <v>1947.123213302626</v>
       </c>
       <c r="P2" t="n">
-        <v>2110.465145293199</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="Q2" t="n">
         <v>2295.310705434148</v>
@@ -4357,25 +4357,25 @@
         <v>2257.31779171967</v>
       </c>
       <c r="S2" t="n">
-        <v>2090.804236660721</v>
+        <v>2257.31779171967</v>
       </c>
       <c r="T2" t="n">
-        <v>1867.303634220137</v>
+        <v>2257.31779171967</v>
       </c>
       <c r="U2" t="n">
-        <v>1611.550904654736</v>
+        <v>2257.31779171967</v>
       </c>
       <c r="V2" t="n">
-        <v>1611.550904654736</v>
+        <v>1915.210982423188</v>
       </c>
       <c r="W2" t="n">
-        <v>1240.551869623023</v>
+        <v>1544.211947391476</v>
       </c>
       <c r="X2" t="n">
-        <v>851.0992645560801</v>
+        <v>1154.759342324533</v>
       </c>
       <c r="Y2" t="n">
-        <v>851.0992645560801</v>
+        <v>1154.759342324533</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>776.3411535985431</v>
+        <v>845.2721972487138</v>
       </c>
       <c r="C3" t="n">
-        <v>625.6869231586353</v>
+        <v>694.617966808806</v>
       </c>
       <c r="D3" t="n">
-        <v>495.5979557801156</v>
+        <v>564.5289994302864</v>
       </c>
       <c r="E3" t="n">
         <v>428.0825085411741</v>
@@ -4409,22 +4409,22 @@
         <v>45.90621410868296</v>
       </c>
       <c r="J3" t="n">
-        <v>159.0211963284103</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="K3" t="n">
-        <v>478.7603423906368</v>
+        <v>365.6453601709094</v>
       </c>
       <c r="L3" t="n">
-        <v>962.32642828895</v>
+        <v>753.5105375278474</v>
       </c>
       <c r="M3" t="n">
-        <v>1210.701023248216</v>
+        <v>1321.599937122799</v>
       </c>
       <c r="N3" t="n">
-        <v>1778.790422843167</v>
+        <v>1889.689336717751</v>
       </c>
       <c r="O3" t="n">
-        <v>2295.310705434148</v>
+        <v>1889.689336717751</v>
       </c>
       <c r="P3" t="n">
         <v>2295.310705434148</v>
@@ -4436,25 +4436,25 @@
         <v>2271.393662332212</v>
       </c>
       <c r="S3" t="n">
-        <v>2136.462985232081</v>
+        <v>2205.394028882252</v>
       </c>
       <c r="T3" t="n">
-        <v>1959.47917343099</v>
+        <v>2028.41021708116</v>
       </c>
       <c r="U3" t="n">
-        <v>1749.416030109631</v>
+        <v>1818.347073759802</v>
       </c>
       <c r="V3" t="n">
-        <v>1526.876028480699</v>
+        <v>1595.807072130869</v>
       </c>
       <c r="W3" t="n">
-        <v>1296.758782613985</v>
+        <v>1365.689826264156</v>
       </c>
       <c r="X3" t="n">
-        <v>1107.451704963997</v>
+        <v>1176.382748614168</v>
       </c>
       <c r="Y3" t="n">
-        <v>928.1374880395044</v>
+        <v>997.0685316896752</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.90621410868296</v>
+        <v>101.1170494902458</v>
       </c>
       <c r="C4" t="n">
-        <v>45.90621410868296</v>
+        <v>101.1170494902458</v>
       </c>
       <c r="D4" t="n">
         <v>45.90621410868296</v>
@@ -4518,22 +4518,22 @@
         <v>620.6361634653617</v>
       </c>
       <c r="T4" t="n">
-        <v>384.9171116335958</v>
+        <v>620.6361634653617</v>
       </c>
       <c r="U4" t="n">
-        <v>99.47831987549677</v>
+        <v>335.1973717072627</v>
       </c>
       <c r="V4" t="n">
-        <v>45.90621410868296</v>
+        <v>335.1973717072627</v>
       </c>
       <c r="W4" t="n">
-        <v>45.90621410868296</v>
+        <v>335.1973717072627</v>
       </c>
       <c r="X4" t="n">
-        <v>45.90621410868296</v>
+        <v>101.1170494902458</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.90621410868296</v>
+        <v>101.1170494902458</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.4891369617244</v>
+        <v>936.9995264736095</v>
       </c>
       <c r="C5" t="n">
-        <v>921.4891369617244</v>
+        <v>936.9995264736095</v>
       </c>
       <c r="D5" t="n">
-        <v>921.4891369617244</v>
+        <v>936.9995264736095</v>
       </c>
       <c r="E5" t="n">
-        <v>921.4891369617244</v>
+        <v>936.9995264736095</v>
       </c>
       <c r="F5" t="n">
-        <v>921.4891369617244</v>
+        <v>520.1050880035873</v>
       </c>
       <c r="G5" t="n">
-        <v>508.3263814497275</v>
+        <v>106.9423324915904</v>
       </c>
       <c r="H5" t="n">
-        <v>184.2433310162181</v>
+        <v>106.9423324915904</v>
       </c>
       <c r="I5" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J5" t="n">
         <v>190.5559870175111</v>
       </c>
       <c r="K5" t="n">
-        <v>190.5559870175111</v>
+        <v>549.5383430449729</v>
       </c>
       <c r="L5" t="n">
-        <v>683.8762787360399</v>
+        <v>1042.858634763502</v>
       </c>
       <c r="M5" t="n">
-        <v>794.4267686318866</v>
+        <v>1588.859534808082</v>
       </c>
       <c r="N5" t="n">
-        <v>1322.238052269349</v>
+        <v>2116.670818445544</v>
       </c>
       <c r="O5" t="n">
-        <v>1762.277653161677</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="P5" t="n">
-        <v>2110.465145293199</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="Q5" t="n">
         <v>2295.310705434148</v>
       </c>
       <c r="R5" t="n">
-        <v>2257.317791719669</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="S5" t="n">
-        <v>2090.80423666072</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="T5" t="n">
-        <v>2090.80423666072</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="U5" t="n">
-        <v>2090.80423666072</v>
+        <v>2039.557975868747</v>
       </c>
       <c r="V5" t="n">
-        <v>2090.80423666072</v>
+        <v>1697.451166572265</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.80423666072</v>
+        <v>1326.452131540553</v>
       </c>
       <c r="X5" t="n">
-        <v>1718.47459175252</v>
+        <v>936.9995264736095</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.983882673121</v>
+        <v>936.9995264736095</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>845.2721972487138</v>
+        <v>776.3411535985431</v>
       </c>
       <c r="C6" t="n">
-        <v>694.617966808806</v>
+        <v>625.6869231586353</v>
       </c>
       <c r="D6" t="n">
-        <v>564.5289994302864</v>
+        <v>495.5979557801156</v>
       </c>
       <c r="E6" t="n">
-        <v>428.0825085411741</v>
+        <v>359.1514648910033</v>
       </c>
       <c r="F6" t="n">
-        <v>303.650702424306</v>
+        <v>234.7196587741352</v>
       </c>
       <c r="G6" t="n">
-        <v>183.5908844961704</v>
+        <v>134.203630508082</v>
       </c>
       <c r="H6" t="n">
-        <v>95.29346809677136</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I6" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J6" t="n">
-        <v>159.0211963284103</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="K6" t="n">
-        <v>478.7603423906368</v>
+        <v>365.6453601709094</v>
       </c>
       <c r="L6" t="n">
-        <v>962.32642828895</v>
+        <v>849.2114460692226</v>
       </c>
       <c r="M6" t="n">
-        <v>1530.415827883901</v>
+        <v>1417.300845664174</v>
       </c>
       <c r="N6" t="n">
-        <v>1544.425331288276</v>
+        <v>1778.790422843167</v>
       </c>
       <c r="O6" t="n">
-        <v>2060.945613879257</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="P6" t="n">
-        <v>2060.945613879257</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="Q6" t="n">
         <v>2295.310705434148</v>
@@ -4676,13 +4676,13 @@
         <v>2136.462985232081</v>
       </c>
       <c r="T6" t="n">
-        <v>1959.479173430989</v>
+        <v>1959.47917343099</v>
       </c>
       <c r="U6" t="n">
         <v>1749.416030109631</v>
       </c>
       <c r="V6" t="n">
-        <v>1526.876028480698</v>
+        <v>1526.876028480699</v>
       </c>
       <c r="W6" t="n">
         <v>1296.758782613985</v>
@@ -4691,7 +4691,7 @@
         <v>1107.451704963997</v>
       </c>
       <c r="Y6" t="n">
-        <v>997.0685316896752</v>
+        <v>928.1374880395044</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2171.409716066725</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="C7" t="n">
-        <v>2171.409716066725</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="D7" t="n">
-        <v>2171.409716066725</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="E7" t="n">
-        <v>2038.394918155503</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="F7" t="n">
-        <v>1881.068983368476</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="G7" t="n">
-        <v>1712.814929467921</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="H7" t="n">
-        <v>1557.336378429415</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I7" t="n">
-        <v>1424.241953066493</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J7" t="n">
-        <v>1393.863682892595</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="K7" t="n">
-        <v>1475.698724002537</v>
+        <v>127.7412552186248</v>
       </c>
       <c r="L7" t="n">
-        <v>1639.826363876337</v>
+        <v>291.8688950924246</v>
       </c>
       <c r="M7" t="n">
-        <v>1826.117942214601</v>
+        <v>478.1604734306886</v>
       </c>
       <c r="N7" t="n">
-        <v>2009.30757624581</v>
+        <v>661.3501074618978</v>
       </c>
       <c r="O7" t="n">
-        <v>2172.012343287518</v>
+        <v>824.0548745036058</v>
       </c>
       <c r="P7" t="n">
-        <v>2291.888509064097</v>
+        <v>943.9310402801843</v>
       </c>
       <c r="Q7" t="n">
-        <v>2295.310705434148</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="R7" t="n">
-        <v>2171.409716066725</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="S7" t="n">
-        <v>2171.409716066725</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="T7" t="n">
-        <v>2171.409716066725</v>
+        <v>829.296283573698</v>
       </c>
       <c r="U7" t="n">
-        <v>2171.409716066725</v>
+        <v>829.296283573698</v>
       </c>
       <c r="V7" t="n">
-        <v>2171.409716066725</v>
+        <v>563.3169383945223</v>
       </c>
       <c r="W7" t="n">
-        <v>2171.409716066725</v>
+        <v>279.9865363256999</v>
       </c>
       <c r="X7" t="n">
-        <v>2171.409716066725</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="Y7" t="n">
-        <v>2171.409716066725</v>
+        <v>45.90621410868296</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2057.163563254559</v>
+        <v>462.8006525787052</v>
       </c>
       <c r="C8" t="n">
-        <v>1663.98806175749</v>
+        <v>462.8006525787052</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.546932974157</v>
+        <v>462.8006525787052</v>
       </c>
       <c r="E8" t="n">
-        <v>875.963408090702</v>
+        <v>462.8006525787052</v>
       </c>
       <c r="F8" t="n">
-        <v>459.0689696206798</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="G8" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="H8" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I8" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J8" t="n">
-        <v>74.28907270079287</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="K8" t="n">
-        <v>433.2714287282547</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="L8" t="n">
-        <v>433.2714287282547</v>
+        <v>248.4258685873065</v>
       </c>
       <c r="M8" t="n">
-        <v>979.2723287728353</v>
+        <v>794.4267686318871</v>
       </c>
       <c r="N8" t="n">
-        <v>1507.083612410297</v>
+        <v>1322.238052269349</v>
       </c>
       <c r="O8" t="n">
-        <v>1947.123213302626</v>
+        <v>1762.277653161678</v>
       </c>
       <c r="P8" t="n">
-        <v>2295.310705434148</v>
+        <v>2110.465145293199</v>
       </c>
       <c r="Q8" t="n">
         <v>2295.310705434148</v>
       </c>
       <c r="R8" t="n">
-        <v>2280.664165695142</v>
+        <v>2257.31779171967</v>
       </c>
       <c r="S8" t="n">
-        <v>2280.664165695142</v>
+        <v>2090.804236660721</v>
       </c>
       <c r="T8" t="n">
-        <v>2057.163563254559</v>
+        <v>1867.303634220137</v>
       </c>
       <c r="U8" t="n">
-        <v>2057.163563254559</v>
+        <v>1611.550904654736</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.163563254559</v>
+        <v>1611.550904654736</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.163563254559</v>
+        <v>1240.551869623023</v>
       </c>
       <c r="X8" t="n">
-        <v>2057.163563254559</v>
+        <v>851.0992645560801</v>
       </c>
       <c r="Y8" t="n">
-        <v>2057.163563254559</v>
+        <v>462.8006525787052</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>776.3411535985426</v>
+        <v>845.2721972487138</v>
       </c>
       <c r="C9" t="n">
-        <v>625.6869231586348</v>
+        <v>694.617966808806</v>
       </c>
       <c r="D9" t="n">
-        <v>495.5979557801152</v>
+        <v>564.5289994302864</v>
       </c>
       <c r="E9" t="n">
-        <v>359.1514648910029</v>
+        <v>428.0825085411741</v>
       </c>
       <c r="F9" t="n">
         <v>303.650702424306</v>
@@ -4880,55 +4880,55 @@
         <v>95.29346809677136</v>
       </c>
       <c r="I9" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J9" t="n">
-        <v>45.90621410868295</v>
+        <v>159.0211963284103</v>
       </c>
       <c r="K9" t="n">
-        <v>365.6453601709094</v>
+        <v>478.7603423906368</v>
       </c>
       <c r="L9" t="n">
-        <v>849.2114460692226</v>
+        <v>962.32642828895</v>
       </c>
       <c r="M9" t="n">
-        <v>849.2114460692226</v>
+        <v>962.32642828895</v>
       </c>
       <c r="N9" t="n">
-        <v>1138.803962571878</v>
+        <v>1530.415827883902</v>
       </c>
       <c r="O9" t="n">
-        <v>1655.32424516286</v>
+        <v>1889.689336717751</v>
       </c>
       <c r="P9" t="n">
-        <v>2060.945613879257</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="Q9" t="n">
         <v>2295.310705434148</v>
       </c>
       <c r="R9" t="n">
-        <v>2271.393662332212</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="S9" t="n">
-        <v>2136.462985232081</v>
+        <v>2160.380028334017</v>
       </c>
       <c r="T9" t="n">
-        <v>1959.479173430989</v>
+        <v>1983.396216532925</v>
       </c>
       <c r="U9" t="n">
-        <v>1749.416030109631</v>
+        <v>1773.333073211567</v>
       </c>
       <c r="V9" t="n">
-        <v>1526.876028480698</v>
+        <v>1595.807072130869</v>
       </c>
       <c r="W9" t="n">
-        <v>1296.758782613985</v>
+        <v>1365.689826264156</v>
       </c>
       <c r="X9" t="n">
-        <v>1107.451704963997</v>
+        <v>1176.382748614168</v>
       </c>
       <c r="Y9" t="n">
-        <v>928.137488039504</v>
+        <v>997.0685316896752</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="C10" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="D10" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="E10" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="F10" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="G10" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="H10" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I10" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J10" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="K10" t="n">
         <v>127.7412552186248</v>
@@ -4986,28 +4986,28 @@
         <v>947.3532366502353</v>
       </c>
       <c r="R10" t="n">
-        <v>823.4522472828123</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="S10" t="n">
-        <v>620.6361634653617</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="T10" t="n">
-        <v>384.9171116335958</v>
+        <v>711.6341848184694</v>
       </c>
       <c r="U10" t="n">
-        <v>99.47831987549677</v>
+        <v>426.1953930603703</v>
       </c>
       <c r="V10" t="n">
-        <v>45.90621410868295</v>
+        <v>160.2160478811946</v>
       </c>
       <c r="W10" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="X10" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>578.1961525260228</v>
+        <v>1225.919413031893</v>
       </c>
       <c r="C11" t="n">
-        <v>578.1961525260228</v>
+        <v>832.7439115348238</v>
       </c>
       <c r="D11" t="n">
-        <v>578.1961525260228</v>
+        <v>832.7439115348238</v>
       </c>
       <c r="E11" t="n">
-        <v>175.6126276425674</v>
+        <v>430.1603866513684</v>
       </c>
       <c r="F11" t="n">
-        <v>45.90621410868295</v>
+        <v>430.1603866513684</v>
       </c>
       <c r="G11" t="n">
         <v>45.90621410868295</v>
@@ -5050,43 +5050,43 @@
         <v>875.0979530992666</v>
       </c>
       <c r="M11" t="n">
-        <v>1443.187352694218</v>
+        <v>940.5498564368909</v>
       </c>
       <c r="N11" t="n">
-        <v>2011.27675228917</v>
+        <v>1508.639256031842</v>
       </c>
       <c r="O11" t="n">
-        <v>2229.909965638615</v>
+        <v>1565.607619441619</v>
       </c>
       <c r="P11" t="n">
-        <v>2256.105495240869</v>
+        <v>1979.051967355132</v>
       </c>
       <c r="Q11" t="n">
-        <v>2256.105495240869</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="R11" t="n">
         <v>2295.310705434148</v>
       </c>
       <c r="S11" t="n">
-        <v>2295.310705434148</v>
+        <v>2157.090651793676</v>
       </c>
       <c r="T11" t="n">
-        <v>2077.245311000559</v>
+        <v>1939.025257360088</v>
       </c>
       <c r="U11" t="n">
-        <v>2077.245311000559</v>
+        <v>1939.025257360088</v>
       </c>
       <c r="V11" t="n">
-        <v>1735.138501704077</v>
+        <v>1596.918448063606</v>
       </c>
       <c r="W11" t="n">
-        <v>1364.139466672365</v>
+        <v>1225.919413031893</v>
       </c>
       <c r="X11" t="n">
-        <v>974.6868616054218</v>
+        <v>1225.919413031893</v>
       </c>
       <c r="Y11" t="n">
-        <v>578.1961525260228</v>
+        <v>1225.919413031893</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>815.3191953951401</v>
+        <v>815.3191953951402</v>
       </c>
       <c r="C12" t="n">
-        <v>664.6649649552323</v>
+        <v>664.6649649552324</v>
       </c>
       <c r="D12" t="n">
-        <v>534.5759975767127</v>
+        <v>534.5759975767128</v>
       </c>
       <c r="E12" t="n">
-        <v>398.1295066876004</v>
+        <v>398.1295066876005</v>
       </c>
       <c r="F12" t="n">
-        <v>273.6977005707322</v>
+        <v>273.6977005707323</v>
       </c>
       <c r="G12" t="n">
-        <v>154.3022099210611</v>
+        <v>154.3022099210612</v>
       </c>
       <c r="H12" t="n">
         <v>72.42079644788473</v>
@@ -5120,28 +5120,28 @@
         <v>45.90621410868295</v>
       </c>
       <c r="J12" t="n">
-        <v>45.90621410868295</v>
+        <v>220.5365448138743</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7848887531167</v>
+        <v>645.4152194583081</v>
       </c>
       <c r="L12" t="n">
-        <v>522.9982165672604</v>
+        <v>1213.50461905326</v>
       </c>
       <c r="M12" t="n">
-        <v>1091.087616162212</v>
+        <v>1287.017074180769</v>
       </c>
       <c r="N12" t="n">
-        <v>1180.282360832553</v>
+        <v>1371.840804447601</v>
       </c>
       <c r="O12" t="n">
-        <v>1748.371760427504</v>
+        <v>1434.99507910178</v>
       </c>
       <c r="P12" t="n">
-        <v>2278.326040446075</v>
+        <v>1964.949359120351</v>
       </c>
       <c r="Q12" t="n">
-        <v>2278.326040446075</v>
+        <v>2282.427709220386</v>
       </c>
       <c r="R12" t="n">
         <v>2295.310705434148</v>
@@ -5165,7 +5165,7 @@
         <v>1146.429746760594</v>
       </c>
       <c r="Y12" t="n">
-        <v>967.1155298361015</v>
+        <v>967.1155298361016</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>162.2516438188144</v>
+        <v>201.5393272061682</v>
       </c>
       <c r="C13" t="n">
-        <v>162.2516438188144</v>
+        <v>201.5393272061682</v>
       </c>
       <c r="D13" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="E13" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="F13" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="G13" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="I13" t="n">
         <v>45.90621410868295</v>
@@ -5223,28 +5223,28 @@
         <v>1458.731569087767</v>
       </c>
       <c r="R13" t="n">
-        <v>1359.873062337847</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="S13" t="n">
-        <v>1166.763092385693</v>
+        <v>1392.508512098676</v>
       </c>
       <c r="T13" t="n">
-        <v>933.4237346158411</v>
+        <v>1159.169154328824</v>
       </c>
       <c r="U13" t="n">
-        <v>648.0153219308729</v>
+        <v>1159.169154328824</v>
       </c>
       <c r="V13" t="n">
-        <v>382.0359767516971</v>
+        <v>893.1898091496485</v>
       </c>
       <c r="W13" t="n">
-        <v>162.2516438188144</v>
+        <v>609.8594070808261</v>
       </c>
       <c r="X13" t="n">
-        <v>162.2516438188144</v>
+        <v>609.8594070808261</v>
       </c>
       <c r="Y13" t="n">
-        <v>162.2516438188144</v>
+        <v>386.7473458974695</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>395.7668012482146</v>
+        <v>798.8788027338938</v>
       </c>
       <c r="C14" t="n">
-        <v>395.7668012482146</v>
+        <v>798.8788027338938</v>
       </c>
       <c r="D14" t="n">
-        <v>395.7668012482146</v>
+        <v>798.8788027338938</v>
       </c>
       <c r="E14" t="n">
-        <v>395.7668012482146</v>
+        <v>798.8788027338938</v>
       </c>
       <c r="F14" t="n">
-        <v>45.90621410868295</v>
+        <v>798.8788027338938</v>
       </c>
       <c r="G14" t="n">
-        <v>45.90621410868295</v>
+        <v>386.9576709813475</v>
       </c>
       <c r="H14" t="n">
-        <v>45.90621410868295</v>
+        <v>75.59039987431055</v>
       </c>
       <c r="I14" t="n">
         <v>45.90621410868295</v>
@@ -5281,22 +5281,22 @@
         <v>293.8401644065544</v>
       </c>
       <c r="K14" t="n">
-        <v>307.0085535043152</v>
+        <v>656.6456773094827</v>
       </c>
       <c r="L14" t="n">
-        <v>347.3312498163642</v>
+        <v>1224.735076904434</v>
       </c>
       <c r="M14" t="n">
-        <v>915.4206494113157</v>
+        <v>1290.186980242058</v>
       </c>
       <c r="N14" t="n">
-        <v>1483.510049006267</v>
+        <v>1359.696939249785</v>
       </c>
       <c r="O14" t="n">
-        <v>2051.599448601219</v>
+        <v>1416.665302659561</v>
       </c>
       <c r="P14" t="n">
-        <v>2077.794978203473</v>
+        <v>1939.846757161853</v>
       </c>
       <c r="Q14" t="n">
         <v>2256.105495240869</v>
@@ -5305,25 +5305,25 @@
         <v>2295.310705434148</v>
       </c>
       <c r="S14" t="n">
-        <v>2295.310705434148</v>
+        <v>2157.090651793676</v>
       </c>
       <c r="T14" t="n">
-        <v>2295.310705434148</v>
+        <v>2157.090651793676</v>
       </c>
       <c r="U14" t="n">
-        <v>2295.310705434148</v>
+        <v>1901.437252129031</v>
       </c>
       <c r="V14" t="n">
-        <v>1953.203896137666</v>
+        <v>1559.33044283255</v>
       </c>
       <c r="W14" t="n">
-        <v>1582.204861105954</v>
+        <v>1188.331407800837</v>
       </c>
       <c r="X14" t="n">
-        <v>1192.75225603901</v>
+        <v>798.8788027338938</v>
       </c>
       <c r="Y14" t="n">
-        <v>796.2615469596115</v>
+        <v>798.8788027338938</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>815.31919539514</v>
+        <v>815.3191953951405</v>
       </c>
       <c r="C15" t="n">
-        <v>664.6649649552321</v>
+        <v>664.6649649552326</v>
       </c>
       <c r="D15" t="n">
-        <v>534.5759975767126</v>
+        <v>534.5759975767128</v>
       </c>
       <c r="E15" t="n">
-        <v>398.1295066876003</v>
+        <v>398.1295066876005</v>
       </c>
       <c r="F15" t="n">
-        <v>273.697700570732</v>
+        <v>273.6977005707321</v>
       </c>
       <c r="G15" t="n">
         <v>154.3022099210611</v>
@@ -5360,25 +5360,25 @@
         <v>220.5365448138743</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9751074160817</v>
+        <v>645.4152194583081</v>
       </c>
       <c r="L15" t="n">
-        <v>289.1884352302254</v>
+        <v>1209.402950278949</v>
       </c>
       <c r="M15" t="n">
-        <v>857.2778348251769</v>
+        <v>1282.915405406458</v>
       </c>
       <c r="N15" t="n">
-        <v>1425.367234420128</v>
+        <v>1367.73913567329</v>
       </c>
       <c r="O15" t="n">
-        <v>1939.711975203061</v>
+        <v>1430.893410327469</v>
       </c>
       <c r="P15" t="n">
-        <v>1977.832355334113</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q15" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446075</v>
       </c>
       <c r="R15" t="n">
         <v>2295.310705434148</v>
@@ -5387,7 +5387,7 @@
         <v>2172.719616159881</v>
       </c>
       <c r="T15" t="n">
-        <v>1998.413509485583</v>
+        <v>1998.413509485582</v>
       </c>
       <c r="U15" t="n">
         <v>1788.394071906229</v>
@@ -5396,13 +5396,13 @@
         <v>1565.854070277296</v>
       </c>
       <c r="W15" t="n">
-        <v>1335.736824410582</v>
+        <v>1335.736824410583</v>
       </c>
       <c r="X15" t="n">
-        <v>1146.429746760594</v>
+        <v>1146.429746760595</v>
       </c>
       <c r="Y15" t="n">
-        <v>967.1155298361014</v>
+        <v>967.1155298361018</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1119.198488122807</v>
+        <v>784.4321440339331</v>
       </c>
       <c r="C16" t="n">
-        <v>948.9933701887965</v>
+        <v>784.4321440339331</v>
       </c>
       <c r="D16" t="n">
-        <v>793.3602570913113</v>
+        <v>628.7990309364479</v>
       </c>
       <c r="E16" t="n">
-        <v>637.8014449505138</v>
+        <v>473.2402187956504</v>
       </c>
       <c r="F16" t="n">
-        <v>480.4755101634867</v>
+        <v>315.9142840086234</v>
       </c>
       <c r="G16" t="n">
         <v>312.7784059369972</v>
@@ -5472,16 +5472,16 @@
         <v>1458.731569087767</v>
       </c>
       <c r="V16" t="n">
-        <v>1458.731569087767</v>
+        <v>1192.752223908591</v>
       </c>
       <c r="W16" t="n">
-        <v>1458.731569087767</v>
+        <v>1192.752223908591</v>
       </c>
       <c r="X16" t="n">
-        <v>1458.731569087767</v>
+        <v>1192.752223908591</v>
       </c>
       <c r="Y16" t="n">
-        <v>1304.406506814109</v>
+        <v>969.6401627252344</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2072.317498740133</v>
+        <v>1498.325250643352</v>
       </c>
       <c r="C17" t="n">
-        <v>1679.141997243064</v>
+        <v>1350.632330035904</v>
       </c>
       <c r="D17" t="n">
-        <v>1679.141997243064</v>
+        <v>965.1912012525715</v>
       </c>
       <c r="E17" t="n">
-        <v>1276.558472359608</v>
+        <v>965.1912012525715</v>
       </c>
       <c r="F17" t="n">
-        <v>859.6640338895863</v>
+        <v>548.2967627825493</v>
       </c>
       <c r="G17" t="n">
-        <v>447.74290213704</v>
+        <v>136.375631030003</v>
       </c>
       <c r="H17" t="n">
         <v>136.375631030003</v>
@@ -5518,22 +5518,22 @@
         <v>293.8401644065544</v>
       </c>
       <c r="K17" t="n">
-        <v>307.0085535043152</v>
+        <v>807.618728679222</v>
       </c>
       <c r="L17" t="n">
-        <v>347.3312498163642</v>
+        <v>847.9414249912711</v>
       </c>
       <c r="M17" t="n">
-        <v>915.4206494113157</v>
+        <v>913.3933283288953</v>
       </c>
       <c r="N17" t="n">
-        <v>1164.834641143626</v>
+        <v>1359.696939249785</v>
       </c>
       <c r="O17" t="n">
-        <v>1732.924040738577</v>
+        <v>1416.665302659561</v>
       </c>
       <c r="P17" t="n">
-        <v>2256.105495240869</v>
+        <v>1939.846757161853</v>
       </c>
       <c r="Q17" t="n">
         <v>2256.105495240869</v>
@@ -5548,19 +5548,19 @@
         <v>2295.310705434148</v>
       </c>
       <c r="U17" t="n">
-        <v>2072.317498740133</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="V17" t="n">
-        <v>2072.317498740133</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="W17" t="n">
-        <v>2072.317498740133</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="X17" t="n">
-        <v>2072.317498740133</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="Y17" t="n">
-        <v>2072.317498740133</v>
+        <v>1898.819996354749</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>815.3191953951402</v>
+        <v>815.3191953951405</v>
       </c>
       <c r="C18" t="n">
-        <v>664.6649649552324</v>
+        <v>664.6649649552326</v>
       </c>
       <c r="D18" t="n">
-        <v>534.5759975767127</v>
+        <v>534.5759975767128</v>
       </c>
       <c r="E18" t="n">
-        <v>398.1295066876004</v>
+        <v>398.1295066876005</v>
       </c>
       <c r="F18" t="n">
-        <v>273.6977005707322</v>
+        <v>273.6977005707321</v>
       </c>
       <c r="G18" t="n">
         <v>154.3022099210611</v>
@@ -5600,22 +5600,22 @@
         <v>645.4152194583081</v>
       </c>
       <c r="L18" t="n">
-        <v>1213.50461905326</v>
+        <v>704.467825338176</v>
       </c>
       <c r="M18" t="n">
-        <v>1287.017074180769</v>
+        <v>777.9802804656849</v>
       </c>
       <c r="N18" t="n">
-        <v>1371.840804447601</v>
+        <v>862.8040107325177</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.356425415576</v>
+        <v>1430.893410327469</v>
       </c>
       <c r="P18" t="n">
-        <v>2295.310705434148</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q18" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446075</v>
       </c>
       <c r="R18" t="n">
         <v>2295.310705434148</v>
@@ -5636,10 +5636,10 @@
         <v>1335.736824410583</v>
       </c>
       <c r="X18" t="n">
-        <v>1146.429746760594</v>
+        <v>1146.429746760595</v>
       </c>
       <c r="Y18" t="n">
-        <v>967.1155298361016</v>
+        <v>967.1155298361018</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>643.648686991108</v>
+        <v>205.4660326936473</v>
       </c>
       <c r="C19" t="n">
-        <v>473.4435690570971</v>
+        <v>205.4660326936473</v>
       </c>
       <c r="D19" t="n">
-        <v>317.8104559596119</v>
+        <v>205.4660326936473</v>
       </c>
       <c r="E19" t="n">
-        <v>162.2516438188144</v>
+        <v>205.4660326936473</v>
       </c>
       <c r="F19" t="n">
-        <v>162.2516438188144</v>
+        <v>196.4329762268657</v>
       </c>
       <c r="G19" t="n">
-        <v>162.2516438188144</v>
+        <v>196.4329762268657</v>
       </c>
       <c r="H19" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="I19" t="n">
         <v>45.90621410868295</v>
@@ -5697,28 +5697,28 @@
         <v>1458.731569087767</v>
       </c>
       <c r="R19" t="n">
-        <v>1359.873062337847</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="S19" t="n">
-        <v>1359.873062337847</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="T19" t="n">
-        <v>1126.533704567996</v>
+        <v>1225.392211317915</v>
       </c>
       <c r="U19" t="n">
-        <v>841.1252918830273</v>
+        <v>939.9837986329467</v>
       </c>
       <c r="V19" t="n">
-        <v>841.1252918830273</v>
+        <v>674.0044534537709</v>
       </c>
       <c r="W19" t="n">
-        <v>841.1252918830273</v>
+        <v>390.6740513849485</v>
       </c>
       <c r="X19" t="n">
-        <v>841.1252918830273</v>
+        <v>390.6740513849485</v>
       </c>
       <c r="Y19" t="n">
-        <v>828.8567056824093</v>
+        <v>390.6740513849485</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1662.746437998039</v>
+        <v>1226.359532417442</v>
       </c>
       <c r="C20" t="n">
-        <v>1662.746437998039</v>
+        <v>833.1840309203723</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.305309214707</v>
+        <v>447.74290213704</v>
       </c>
       <c r="E20" t="n">
-        <v>874.7217843312515</v>
+        <v>447.74290213704</v>
       </c>
       <c r="F20" t="n">
-        <v>457.8273458612293</v>
+        <v>447.74290213704</v>
       </c>
       <c r="G20" t="n">
-        <v>45.90621410868295</v>
+        <v>447.74290213704</v>
       </c>
       <c r="H20" t="n">
-        <v>45.90621410868295</v>
+        <v>136.375631030003</v>
       </c>
       <c r="I20" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J20" t="n">
         <v>293.8401644065544</v>
@@ -5758,19 +5758,19 @@
         <v>307.0085535043152</v>
       </c>
       <c r="L20" t="n">
-        <v>875.0979530992666</v>
+        <v>752.8192509125375</v>
       </c>
       <c r="M20" t="n">
-        <v>1443.187352694218</v>
+        <v>818.2711542501618</v>
       </c>
       <c r="N20" t="n">
-        <v>2011.27675228917</v>
+        <v>887.7811132578884</v>
       </c>
       <c r="O20" t="n">
-        <v>2068.245115698946</v>
+        <v>1455.87051285284</v>
       </c>
       <c r="P20" t="n">
-        <v>2094.4406453012</v>
+        <v>1979.051967355132</v>
       </c>
       <c r="Q20" t="n">
         <v>2295.310705434148</v>
@@ -5779,25 +5779,25 @@
         <v>2295.310705434148</v>
       </c>
       <c r="S20" t="n">
-        <v>2157.090651793676</v>
+        <v>2195.118776410281</v>
       </c>
       <c r="T20" t="n">
-        <v>2063.241183709436</v>
+        <v>2195.118776410281</v>
       </c>
       <c r="U20" t="n">
-        <v>2063.241183709436</v>
+        <v>1939.465376745636</v>
       </c>
       <c r="V20" t="n">
-        <v>2063.241183709436</v>
+        <v>1597.358567449154</v>
       </c>
       <c r="W20" t="n">
-        <v>2063.241183709436</v>
+        <v>1226.359532417442</v>
       </c>
       <c r="X20" t="n">
-        <v>2063.241183709436</v>
+        <v>1226.359532417442</v>
       </c>
       <c r="Y20" t="n">
-        <v>2063.241183709436</v>
+        <v>1226.359532417442</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>815.3191953951402</v>
+        <v>815.3191953951405</v>
       </c>
       <c r="C21" t="n">
-        <v>664.6649649552324</v>
+        <v>664.6649649552326</v>
       </c>
       <c r="D21" t="n">
         <v>534.5759975767128</v>
@@ -5819,40 +5819,40 @@
         <v>398.1295066876005</v>
       </c>
       <c r="F21" t="n">
-        <v>273.6977005707323</v>
+        <v>273.6977005707322</v>
       </c>
       <c r="G21" t="n">
-        <v>154.3022099210612</v>
+        <v>154.3022099210611</v>
       </c>
       <c r="H21" t="n">
-        <v>72.42079644788473</v>
+        <v>72.42079644788464</v>
       </c>
       <c r="I21" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J21" t="n">
         <v>220.5365448138743</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9751074160817</v>
+        <v>645.4152194583081</v>
       </c>
       <c r="L21" t="n">
-        <v>805.0645070110331</v>
+        <v>1213.50461905326</v>
       </c>
       <c r="M21" t="n">
-        <v>1117.128086178373</v>
+        <v>1287.017074180769</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.217485773325</v>
+        <v>1371.840804447601</v>
       </c>
       <c r="O21" t="n">
-        <v>1748.371760427504</v>
+        <v>1922.727310214989</v>
       </c>
       <c r="P21" t="n">
-        <v>2278.326040446075</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q21" t="n">
-        <v>2278.326040446075</v>
+        <v>2278.326040446076</v>
       </c>
       <c r="R21" t="n">
         <v>2295.310705434148</v>
@@ -5873,10 +5873,10 @@
         <v>1335.736824410583</v>
       </c>
       <c r="X21" t="n">
-        <v>1146.429746760594</v>
+        <v>1146.429746760595</v>
       </c>
       <c r="Y21" t="n">
-        <v>967.1155298361016</v>
+        <v>967.1155298361018</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.70557468287478</v>
+        <v>204.7250682464822</v>
       </c>
       <c r="C22" t="n">
-        <v>98.70557468287478</v>
+        <v>204.7250682464822</v>
       </c>
       <c r="D22" t="n">
-        <v>45.90621410868295</v>
+        <v>204.7250682464822</v>
       </c>
       <c r="E22" t="n">
-        <v>45.90621410868295</v>
+        <v>204.7250682464822</v>
       </c>
       <c r="F22" t="n">
-        <v>45.90621410868295</v>
+        <v>204.7250682464822</v>
       </c>
       <c r="G22" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="H22" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I22" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J22" t="n">
-        <v>54.72522426270767</v>
+        <v>54.72522426270768</v>
       </c>
       <c r="K22" t="n">
         <v>199.9800133684946</v>
@@ -5934,28 +5934,28 @@
         <v>1458.731569087767</v>
       </c>
       <c r="R22" t="n">
-        <v>1359.873062337847</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="S22" t="n">
-        <v>1166.763092385693</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="T22" t="n">
-        <v>933.4237346158411</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="U22" t="n">
-        <v>648.0153219308729</v>
+        <v>1173.323156402799</v>
       </c>
       <c r="V22" t="n">
-        <v>382.0359767516971</v>
+        <v>907.3438112236228</v>
       </c>
       <c r="W22" t="n">
-        <v>98.70557468287478</v>
+        <v>624.0134091548005</v>
       </c>
       <c r="X22" t="n">
-        <v>98.70557468287478</v>
+        <v>389.9330869377835</v>
       </c>
       <c r="Y22" t="n">
-        <v>98.70557468287478</v>
+        <v>389.9330869377835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1498.325250643352</v>
+        <v>682.4996472486368</v>
       </c>
       <c r="C23" t="n">
-        <v>1498.325250643352</v>
+        <v>682.4996472486368</v>
       </c>
       <c r="D23" t="n">
-        <v>1112.88412186002</v>
+        <v>682.4996472486368</v>
       </c>
       <c r="E23" t="n">
-        <v>710.3005969765641</v>
+        <v>682.4996472486368</v>
       </c>
       <c r="F23" t="n">
-        <v>457.8273458612293</v>
+        <v>682.4996472486368</v>
       </c>
       <c r="G23" t="n">
-        <v>45.90621410868295</v>
+        <v>447.74290213704</v>
       </c>
       <c r="H23" t="n">
-        <v>45.90621410868295</v>
+        <v>136.375631030003</v>
       </c>
       <c r="I23" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J23" t="n">
-        <v>45.90621410868295</v>
+        <v>293.8401644065544</v>
       </c>
       <c r="K23" t="n">
-        <v>559.6847783813506</v>
+        <v>807.618728679222</v>
       </c>
       <c r="L23" t="n">
-        <v>600.0074746933997</v>
+        <v>847.9414249912711</v>
       </c>
       <c r="M23" t="n">
-        <v>1134.529892329178</v>
+        <v>913.3933283288953</v>
       </c>
       <c r="N23" t="n">
-        <v>1204.039851336904</v>
+        <v>982.9032873366219</v>
       </c>
       <c r="O23" t="n">
-        <v>1772.129250931855</v>
+        <v>1416.665302659562</v>
       </c>
       <c r="P23" t="n">
-        <v>2295.310705434148</v>
+        <v>1939.846757161854</v>
       </c>
       <c r="Q23" t="n">
-        <v>2295.310705434148</v>
+        <v>2256.10549524087</v>
       </c>
       <c r="R23" t="n">
         <v>2295.310705434148</v>
@@ -6019,22 +6019,22 @@
         <v>2295.310705434148</v>
       </c>
       <c r="T23" t="n">
-        <v>2295.310705434148</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="U23" t="n">
-        <v>2295.310705434148</v>
+        <v>1821.591911335914</v>
       </c>
       <c r="V23" t="n">
-        <v>2295.310705434148</v>
+        <v>1479.485102039433</v>
       </c>
       <c r="W23" t="n">
-        <v>2295.310705434148</v>
+        <v>1479.485102039433</v>
       </c>
       <c r="X23" t="n">
-        <v>2295.310705434148</v>
+        <v>1479.485102039433</v>
       </c>
       <c r="Y23" t="n">
-        <v>1898.819996354749</v>
+        <v>1082.994392960034</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>815.3191953951402</v>
+        <v>815.3191953951405</v>
       </c>
       <c r="C24" t="n">
-        <v>664.6649649552324</v>
+        <v>664.6649649552326</v>
       </c>
       <c r="D24" t="n">
         <v>534.5759975767128</v>
@@ -6056,40 +6056,40 @@
         <v>398.1295066876005</v>
       </c>
       <c r="F24" t="n">
-        <v>273.6977005707323</v>
+        <v>273.6977005707322</v>
       </c>
       <c r="G24" t="n">
-        <v>154.3022099210612</v>
+        <v>154.3022099210611</v>
       </c>
       <c r="H24" t="n">
-        <v>72.42079644788488</v>
+        <v>72.42079644788473</v>
       </c>
       <c r="I24" t="n">
-        <v>45.90621410868312</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J24" t="n">
-        <v>155.85093916182</v>
+        <v>220.5365448138743</v>
       </c>
       <c r="K24" t="n">
-        <v>172.2895017640274</v>
+        <v>645.4152194583081</v>
       </c>
       <c r="L24" t="n">
-        <v>740.3789013589789</v>
+        <v>1213.50461905326</v>
       </c>
       <c r="M24" t="n">
-        <v>1308.46830095393</v>
+        <v>1774.749305293977</v>
       </c>
       <c r="N24" t="n">
-        <v>1876.557700548882</v>
+        <v>1859.57303556081</v>
       </c>
       <c r="O24" t="n">
-        <v>1939.711975203061</v>
+        <v>1922.727310214989</v>
       </c>
       <c r="P24" t="n">
-        <v>1977.832355334113</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q24" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446076</v>
       </c>
       <c r="R24" t="n">
         <v>2295.310705434148</v>
@@ -6110,10 +6110,10 @@
         <v>1335.736824410583</v>
       </c>
       <c r="X24" t="n">
-        <v>1146.429746760594</v>
+        <v>1146.429746760595</v>
       </c>
       <c r="Y24" t="n">
-        <v>967.1155298361016</v>
+        <v>967.1155298361018</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="C25" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="D25" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="E25" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="F25" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="G25" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="H25" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I25" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J25" t="n">
-        <v>54.72522426270767</v>
+        <v>54.72522426270768</v>
       </c>
       <c r="K25" t="n">
         <v>199.9800133684946</v>
@@ -6177,22 +6177,22 @@
         <v>1458.731569087767</v>
       </c>
       <c r="T25" t="n">
-        <v>1225.392211317915</v>
+        <v>1337.816757442023</v>
       </c>
       <c r="U25" t="n">
-        <v>939.9837986329467</v>
+        <v>1052.408344757055</v>
       </c>
       <c r="V25" t="n">
-        <v>674.0044534537709</v>
+        <v>786.4289995778788</v>
       </c>
       <c r="W25" t="n">
-        <v>390.6740513849485</v>
+        <v>503.0985975090565</v>
       </c>
       <c r="X25" t="n">
         <v>269.0182752920396</v>
       </c>
       <c r="Y25" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>580.8134083003052</v>
+        <v>1127.32621561164</v>
       </c>
       <c r="C26" t="n">
-        <v>580.8134083003052</v>
+        <v>1127.32621561164</v>
       </c>
       <c r="D26" t="n">
-        <v>580.8134083003052</v>
+        <v>741.8850868283075</v>
       </c>
       <c r="E26" t="n">
         <v>357.2734852157199</v>
@@ -6229,49 +6229,49 @@
         <v>293.8401644065544</v>
       </c>
       <c r="K26" t="n">
-        <v>468.6734034439844</v>
+        <v>307.0085535043152</v>
       </c>
       <c r="L26" t="n">
-        <v>1036.762803038936</v>
+        <v>347.3312498163642</v>
       </c>
       <c r="M26" t="n">
-        <v>1604.852202633888</v>
+        <v>915.4206494113158</v>
       </c>
       <c r="N26" t="n">
-        <v>2172.941602228839</v>
+        <v>984.9306084190424</v>
       </c>
       <c r="O26" t="n">
-        <v>2229.909965638616</v>
+        <v>1455.87051285284</v>
       </c>
       <c r="P26" t="n">
-        <v>2256.10549524087</v>
+        <v>1979.051967355132</v>
       </c>
       <c r="Q26" t="n">
-        <v>2256.10549524087</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="R26" t="n">
         <v>2295.310705434148</v>
       </c>
       <c r="S26" t="n">
-        <v>2157.090651793677</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="T26" t="n">
-        <v>1939.025257360088</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="U26" t="n">
-        <v>1683.371857695443</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="V26" t="n">
-        <v>1341.265048398961</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="W26" t="n">
-        <v>970.2660133672484</v>
+        <v>1924.311670402436</v>
       </c>
       <c r="X26" t="n">
-        <v>580.8134083003052</v>
+        <v>1924.311670402436</v>
       </c>
       <c r="Y26" t="n">
-        <v>580.8134083003052</v>
+        <v>1527.820961323037</v>
       </c>
     </row>
     <row r="27">
@@ -6296,10 +6296,10 @@
         <v>273.6977005707322</v>
       </c>
       <c r="G27" t="n">
-        <v>154.3022099210609</v>
+        <v>154.3022099210611</v>
       </c>
       <c r="H27" t="n">
-        <v>72.42079644788473</v>
+        <v>72.42079644788464</v>
       </c>
       <c r="I27" t="n">
         <v>45.90621410868296</v>
@@ -6311,16 +6311,16 @@
         <v>645.4152194583081</v>
       </c>
       <c r="L27" t="n">
-        <v>1213.50461905326</v>
+        <v>697.6285472724518</v>
       </c>
       <c r="M27" t="n">
-        <v>1287.017074180769</v>
+        <v>771.1410023999607</v>
       </c>
       <c r="N27" t="n">
-        <v>1371.840804447601</v>
+        <v>862.804010732518</v>
       </c>
       <c r="O27" t="n">
-        <v>1434.99507910178</v>
+        <v>1430.89341032747</v>
       </c>
       <c r="P27" t="n">
         <v>1960.847690346041</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>389.9330869377835</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="C28" t="n">
-        <v>389.9330869377835</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="D28" t="n">
-        <v>389.9330869377835</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="E28" t="n">
-        <v>389.9330869377835</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="F28" t="n">
-        <v>232.6071521507565</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="G28" t="n">
-        <v>64.91004792426699</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="H28" t="n">
-        <v>64.91004792426699</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I28" t="n">
         <v>45.90621410868296</v>
@@ -6411,25 +6411,25 @@
         <v>1458.731569087767</v>
       </c>
       <c r="S28" t="n">
-        <v>1458.731569087767</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="T28" t="n">
-        <v>1458.731569087767</v>
+        <v>1032.28224136576</v>
       </c>
       <c r="U28" t="n">
-        <v>1173.323156402799</v>
+        <v>1032.28224136576</v>
       </c>
       <c r="V28" t="n">
-        <v>907.3438112236228</v>
+        <v>766.3028961865847</v>
       </c>
       <c r="W28" t="n">
-        <v>624.0134091548005</v>
+        <v>482.9724941177623</v>
       </c>
       <c r="X28" t="n">
-        <v>389.9330869377835</v>
+        <v>248.8921719007454</v>
       </c>
       <c r="Y28" t="n">
-        <v>389.9330869377835</v>
+        <v>231.1142327999842</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>439.0817156057524</v>
+        <v>874.7217843312515</v>
       </c>
       <c r="C29" t="n">
-        <v>45.90621410868296</v>
+        <v>874.7217843312515</v>
       </c>
       <c r="D29" t="n">
-        <v>45.90621410868296</v>
+        <v>874.7217843312515</v>
       </c>
       <c r="E29" t="n">
-        <v>45.90621410868296</v>
+        <v>874.7217843312515</v>
       </c>
       <c r="F29" t="n">
-        <v>45.90621410868296</v>
+        <v>457.8273458612293</v>
       </c>
       <c r="G29" t="n">
         <v>45.90621410868296</v>
@@ -6466,25 +6466,25 @@
         <v>293.8401644065544</v>
       </c>
       <c r="K29" t="n">
-        <v>807.618728679222</v>
+        <v>712.4965546004885</v>
       </c>
       <c r="L29" t="n">
-        <v>847.9414249912711</v>
+        <v>752.8192509125375</v>
       </c>
       <c r="M29" t="n">
-        <v>913.3933283288953</v>
+        <v>818.2711542501618</v>
       </c>
       <c r="N29" t="n">
-        <v>982.9032873366219</v>
+        <v>887.7811132578884</v>
       </c>
       <c r="O29" t="n">
-        <v>1550.992686931574</v>
+        <v>1455.87051285284</v>
       </c>
       <c r="P29" t="n">
-        <v>2074.174141433866</v>
+        <v>1979.051967355132</v>
       </c>
       <c r="Q29" t="n">
-        <v>2256.10549524087</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="R29" t="n">
         <v>2295.310705434148</v>
@@ -6499,16 +6499,16 @@
         <v>1683.371857695443</v>
       </c>
       <c r="V29" t="n">
-        <v>1341.265048398961</v>
+        <v>1664.669135109591</v>
       </c>
       <c r="W29" t="n">
-        <v>970.2660133672484</v>
+        <v>1664.669135109591</v>
       </c>
       <c r="X29" t="n">
-        <v>580.8134083003052</v>
+        <v>1275.216530042648</v>
       </c>
       <c r="Y29" t="n">
-        <v>439.0817156057524</v>
+        <v>1275.216530042648</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>398.1295066876005</v>
       </c>
       <c r="F30" t="n">
-        <v>273.6977005707323</v>
+        <v>273.6977005707322</v>
       </c>
       <c r="G30" t="n">
-        <v>154.302209921061</v>
+        <v>154.3022099210611</v>
       </c>
       <c r="H30" t="n">
-        <v>72.42079644788463</v>
+        <v>72.42079644788464</v>
       </c>
       <c r="I30" t="n">
         <v>45.90621410868296</v>
       </c>
       <c r="J30" t="n">
-        <v>45.96276618689819</v>
+        <v>220.5365448138743</v>
       </c>
       <c r="K30" t="n">
-        <v>470.841440831332</v>
+        <v>645.4152194583081</v>
       </c>
       <c r="L30" t="n">
-        <v>1038.930840426284</v>
+        <v>697.6285472724518</v>
       </c>
       <c r="M30" t="n">
-        <v>1112.443295553792</v>
+        <v>771.1410023999607</v>
       </c>
       <c r="N30" t="n">
-        <v>1197.267025820625</v>
+        <v>862.804010732518</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.356425415577</v>
+        <v>1430.89341032747</v>
       </c>
       <c r="P30" t="n">
-        <v>2295.310705434148</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q30" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446076</v>
       </c>
       <c r="R30" t="n">
         <v>2295.310705434148</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.90621410868296</v>
+        <v>383.8084362691832</v>
       </c>
       <c r="C31" t="n">
-        <v>45.90621410868296</v>
+        <v>213.6033183351724</v>
       </c>
       <c r="D31" t="n">
-        <v>45.90621410868296</v>
+        <v>213.6033183351724</v>
       </c>
       <c r="E31" t="n">
-        <v>45.90621410868296</v>
+        <v>213.6033183351724</v>
       </c>
       <c r="F31" t="n">
-        <v>45.90621410868296</v>
+        <v>213.6033183351724</v>
       </c>
       <c r="G31" t="n">
         <v>45.90621410868296</v>
@@ -6648,25 +6648,25 @@
         <v>1458.731569087767</v>
       </c>
       <c r="S31" t="n">
-        <v>1458.731569087767</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="T31" t="n">
-        <v>1225.392211317915</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="U31" t="n">
-        <v>939.9837986329467</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="V31" t="n">
-        <v>674.0044534537709</v>
+        <v>1026.208838360858</v>
       </c>
       <c r="W31" t="n">
-        <v>390.6740513849485</v>
+        <v>1026.208838360858</v>
       </c>
       <c r="X31" t="n">
-        <v>156.5937291679316</v>
+        <v>792.1285161438411</v>
       </c>
       <c r="Y31" t="n">
-        <v>45.90621410868296</v>
+        <v>569.0164549604845</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1178.573617261432</v>
+        <v>1135.890115496122</v>
       </c>
       <c r="C32" t="n">
-        <v>785.398115764363</v>
+        <v>742.7146139990522</v>
       </c>
       <c r="D32" t="n">
-        <v>785.398115764363</v>
+        <v>357.2734852157199</v>
       </c>
       <c r="E32" t="n">
-        <v>785.398115764363</v>
+        <v>357.2734852157199</v>
       </c>
       <c r="F32" t="n">
-        <v>769.1946169682662</v>
+        <v>357.2734852157199</v>
       </c>
       <c r="G32" t="n">
         <v>357.2734852157199</v>
@@ -6706,46 +6706,46 @@
         <v>807.618728679222</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.708128274174</v>
+        <v>847.9414249912711</v>
       </c>
       <c r="M32" t="n">
-        <v>1441.160031611798</v>
+        <v>913.3933283288953</v>
       </c>
       <c r="N32" t="n">
-        <v>1715.16088752208</v>
+        <v>982.9032873366219</v>
       </c>
       <c r="O32" t="n">
-        <v>1772.129250931856</v>
+        <v>1416.665302659562</v>
       </c>
       <c r="P32" t="n">
-        <v>2295.310705434148</v>
+        <v>1939.846757161854</v>
       </c>
       <c r="Q32" t="n">
-        <v>2295.310705434148</v>
+        <v>2256.10549524087</v>
       </c>
       <c r="R32" t="n">
         <v>2295.310705434148</v>
       </c>
       <c r="S32" t="n">
-        <v>2157.090651793677</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="T32" t="n">
-        <v>1939.025257360088</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="U32" t="n">
-        <v>1939.025257360088</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="V32" t="n">
-        <v>1939.025257360088</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="W32" t="n">
-        <v>1568.026222328376</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="X32" t="n">
-        <v>1178.573617261432</v>
+        <v>1932.875570286917</v>
       </c>
       <c r="Y32" t="n">
-        <v>1178.573617261432</v>
+        <v>1536.384861207518</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>815.3191953951405</v>
+        <v>815.3191953951407</v>
       </c>
       <c r="C33" t="n">
-        <v>664.6649649552326</v>
+        <v>664.6649649552329</v>
       </c>
       <c r="D33" t="n">
-        <v>534.5759975767128</v>
+        <v>534.5759975767132</v>
       </c>
       <c r="E33" t="n">
-        <v>398.1295066876005</v>
+        <v>398.129506687601</v>
       </c>
       <c r="F33" t="n">
-        <v>273.6977005707322</v>
+        <v>273.6977005707328</v>
       </c>
       <c r="G33" t="n">
-        <v>154.3022099210611</v>
+        <v>154.3022099210617</v>
       </c>
       <c r="H33" t="n">
-        <v>72.42079644788473</v>
+        <v>72.42079644788534</v>
       </c>
       <c r="I33" t="n">
         <v>45.90621410868296</v>
       </c>
       <c r="J33" t="n">
-        <v>45.90621410868296</v>
+        <v>220.5365448138743</v>
       </c>
       <c r="K33" t="n">
-        <v>62.34477671089032</v>
+        <v>645.4152194583081</v>
       </c>
       <c r="L33" t="n">
-        <v>630.4341763058419</v>
+        <v>1213.50461905326</v>
       </c>
       <c r="M33" t="n">
-        <v>703.9466314333508</v>
+        <v>1774.749305293977</v>
       </c>
       <c r="N33" t="n">
-        <v>1197.267025820625</v>
+        <v>1859.57303556081</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.356425415577</v>
+        <v>1922.727310214989</v>
       </c>
       <c r="P33" t="n">
-        <v>2295.310705434148</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q33" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446076</v>
       </c>
       <c r="R33" t="n">
         <v>2295.310705434148</v>
@@ -6824,7 +6824,7 @@
         <v>1146.429746760595</v>
       </c>
       <c r="Y33" t="n">
-        <v>967.1155298361018</v>
+        <v>967.115529836102</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1652.910303342473</v>
+        <v>468.3372180777947</v>
       </c>
       <c r="C34" t="n">
-        <v>1482.705185408462</v>
+        <v>468.3372180777947</v>
       </c>
       <c r="D34" t="n">
-        <v>1327.072072310977</v>
+        <v>468.3372180777947</v>
       </c>
       <c r="E34" t="n">
-        <v>1171.51326017018</v>
+        <v>312.7784059369972</v>
       </c>
       <c r="F34" t="n">
-        <v>1050.182454681554</v>
+        <v>312.7784059369972</v>
       </c>
       <c r="G34" t="n">
-        <v>882.4853504550643</v>
+        <v>312.7784059369972</v>
       </c>
       <c r="H34" t="n">
-        <v>882.4853504550643</v>
+        <v>162.2516438188144</v>
       </c>
       <c r="I34" t="n">
-        <v>882.4853504550643</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J34" t="n">
-        <v>891.304360609089</v>
+        <v>54.72522426270768</v>
       </c>
       <c r="K34" t="n">
-        <v>1036.559149714876</v>
+        <v>199.9800133684946</v>
       </c>
       <c r="L34" t="n">
-        <v>1281.842232368335</v>
+        <v>445.263096021954</v>
       </c>
       <c r="M34" t="n">
-        <v>1553.700846285031</v>
+        <v>717.1217099386497</v>
       </c>
       <c r="N34" t="n">
-        <v>1820.422923040345</v>
+        <v>983.8437866939637</v>
       </c>
       <c r="O34" t="n">
-        <v>2060.283421055402</v>
+        <v>1223.704284709021</v>
       </c>
       <c r="P34" t="n">
-        <v>2246.179643744087</v>
+        <v>1409.600507397706</v>
       </c>
       <c r="Q34" t="n">
-        <v>2295.310705434148</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="R34" t="n">
-        <v>2295.310705434148</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="S34" t="n">
-        <v>2295.310705434148</v>
+        <v>1303.055378010761</v>
       </c>
       <c r="T34" t="n">
-        <v>2295.310705434148</v>
+        <v>1303.055378010761</v>
       </c>
       <c r="U34" t="n">
-        <v>2295.310705434148</v>
+        <v>1017.646965325793</v>
       </c>
       <c r="V34" t="n">
-        <v>2295.310705434148</v>
+        <v>751.6676201466171</v>
       </c>
       <c r="W34" t="n">
-        <v>2295.310705434148</v>
+        <v>468.3372180777947</v>
       </c>
       <c r="X34" t="n">
-        <v>2061.230383217131</v>
+        <v>468.3372180777947</v>
       </c>
       <c r="Y34" t="n">
-        <v>1838.118322033774</v>
+        <v>468.3372180777947</v>
       </c>
     </row>
     <row r="35">
@@ -6940,22 +6940,22 @@
         <v>293.8401644065544</v>
       </c>
       <c r="K35" t="n">
-        <v>807.618728679222</v>
+        <v>307.0085535043152</v>
       </c>
       <c r="L35" t="n">
-        <v>847.9414249912711</v>
+        <v>347.3312498163642</v>
       </c>
       <c r="M35" t="n">
-        <v>1093.731166448712</v>
+        <v>412.7831531539885</v>
       </c>
       <c r="N35" t="n">
-        <v>1661.820566043664</v>
+        <v>848.5759030646102</v>
       </c>
       <c r="O35" t="n">
-        <v>2229.909965638616</v>
+        <v>1416.665302659562</v>
       </c>
       <c r="P35" t="n">
-        <v>2256.10549524087</v>
+        <v>1939.846757161854</v>
       </c>
       <c r="Q35" t="n">
         <v>2256.10549524087</v>
@@ -6967,13 +6967,13 @@
         <v>2295.310705434148</v>
       </c>
       <c r="T35" t="n">
-        <v>2295.310705434148</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="U35" t="n">
-        <v>2295.310705434148</v>
+        <v>1821.591911335914</v>
       </c>
       <c r="V35" t="n">
-        <v>2033.745473029752</v>
+        <v>1821.591911335914</v>
       </c>
       <c r="W35" t="n">
         <v>1662.746437998039</v>
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>815.3191953951401</v>
+        <v>815.3191953951405</v>
       </c>
       <c r="C36" t="n">
-        <v>664.6649649552323</v>
+        <v>664.6649649552326</v>
       </c>
       <c r="D36" t="n">
-        <v>534.5759975767127</v>
+        <v>534.5759975767128</v>
       </c>
       <c r="E36" t="n">
-        <v>398.1295066876004</v>
+        <v>398.1295066876005</v>
       </c>
       <c r="F36" t="n">
         <v>273.6977005707322</v>
@@ -7010,7 +7010,7 @@
         <v>154.3022099210611</v>
       </c>
       <c r="H36" t="n">
-        <v>72.42079644788473</v>
+        <v>72.42079644788464</v>
       </c>
       <c r="I36" t="n">
         <v>45.90621410868296</v>
@@ -7022,22 +7022,22 @@
         <v>645.4152194583081</v>
       </c>
       <c r="L36" t="n">
-        <v>1213.50461905326</v>
+        <v>697.6285472724518</v>
       </c>
       <c r="M36" t="n">
-        <v>1287.017074180769</v>
+        <v>771.1410023999607</v>
       </c>
       <c r="N36" t="n">
-        <v>1371.840804447601</v>
+        <v>862.804010732518</v>
       </c>
       <c r="O36" t="n">
-        <v>1939.930204042553</v>
+        <v>1430.89341032747</v>
       </c>
       <c r="P36" t="n">
-        <v>1978.050584173606</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q36" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446076</v>
       </c>
       <c r="R36" t="n">
         <v>2295.310705434148</v>
@@ -7058,10 +7058,10 @@
         <v>1335.736824410583</v>
       </c>
       <c r="X36" t="n">
-        <v>1146.429746760594</v>
+        <v>1146.429746760595</v>
       </c>
       <c r="Y36" t="n">
-        <v>967.1155298361015</v>
+        <v>967.1155298361018</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1002.853058412676</v>
+        <v>463.5434266119699</v>
       </c>
       <c r="C37" t="n">
-        <v>832.6479404786651</v>
+        <v>463.5434266119699</v>
       </c>
       <c r="D37" t="n">
-        <v>677.0148273811799</v>
+        <v>463.5434266119699</v>
       </c>
       <c r="E37" t="n">
-        <v>521.4560152403824</v>
+        <v>463.5434266119699</v>
       </c>
       <c r="F37" t="n">
-        <v>364.1300804533553</v>
+        <v>463.5434266119699</v>
       </c>
       <c r="G37" t="n">
-        <v>196.4329762268658</v>
+        <v>295.8463223854804</v>
       </c>
       <c r="H37" t="n">
-        <v>45.90621410868296</v>
+        <v>145.3195602672976</v>
       </c>
       <c r="I37" t="n">
         <v>45.90621410868296</v>
@@ -7122,25 +7122,25 @@
         <v>1458.731569087767</v>
       </c>
       <c r="S37" t="n">
-        <v>1458.731569087767</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="T37" t="n">
-        <v>1458.731569087767</v>
+        <v>1032.28224136576</v>
       </c>
       <c r="U37" t="n">
-        <v>1458.731569087767</v>
+        <v>746.8738286807923</v>
       </c>
       <c r="V37" t="n">
-        <v>1458.731569087767</v>
+        <v>746.8738286807923</v>
       </c>
       <c r="W37" t="n">
-        <v>1458.731569087767</v>
+        <v>463.5434266119699</v>
       </c>
       <c r="X37" t="n">
-        <v>1411.173138287334</v>
+        <v>463.5434266119699</v>
       </c>
       <c r="Y37" t="n">
-        <v>1188.061077103977</v>
+        <v>463.5434266119699</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>950.8802876660047</v>
+        <v>1498.325250643352</v>
       </c>
       <c r="C38" t="n">
-        <v>950.8802876660047</v>
+        <v>1105.149749146283</v>
       </c>
       <c r="D38" t="n">
-        <v>950.8802876660047</v>
+        <v>1105.149749146283</v>
       </c>
       <c r="E38" t="n">
-        <v>548.2967627825493</v>
+        <v>702.5662242628273</v>
       </c>
       <c r="F38" t="n">
-        <v>548.2967627825493</v>
+        <v>285.6717857928051</v>
       </c>
       <c r="G38" t="n">
-        <v>136.375631030003</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="H38" t="n">
-        <v>136.375631030003</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I38" t="n">
         <v>45.90621410868296</v>
       </c>
       <c r="J38" t="n">
-        <v>45.90621410868296</v>
+        <v>293.8401644065544</v>
       </c>
       <c r="K38" t="n">
-        <v>559.6847783813506</v>
+        <v>807.618728679222</v>
       </c>
       <c r="L38" t="n">
-        <v>726.1556363172095</v>
+        <v>1263.940287097713</v>
       </c>
       <c r="M38" t="n">
-        <v>791.6075396548338</v>
+        <v>1329.392190435337</v>
       </c>
       <c r="N38" t="n">
-        <v>1359.696939249785</v>
+        <v>1398.902149443064</v>
       </c>
       <c r="O38" t="n">
-        <v>1416.665302659562</v>
+        <v>1455.87051285284</v>
       </c>
       <c r="P38" t="n">
-        <v>1939.846757161854</v>
+        <v>1979.051967355132</v>
       </c>
       <c r="Q38" t="n">
-        <v>2256.10549524087</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="R38" t="n">
         <v>2295.310705434148</v>
@@ -7213,13 +7213,13 @@
         <v>2295.310705434148</v>
       </c>
       <c r="W38" t="n">
-        <v>2137.318347523744</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="X38" t="n">
-        <v>1747.8657424568</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="Y38" t="n">
-        <v>1351.375033377402</v>
+        <v>1898.819996354749</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>45.90621410868296</v>
       </c>
       <c r="J39" t="n">
-        <v>45.90621410868296</v>
+        <v>220.5365448138743</v>
       </c>
       <c r="K39" t="n">
-        <v>470.7848887531167</v>
+        <v>645.4152194583081</v>
       </c>
       <c r="L39" t="n">
-        <v>522.9982165672604</v>
+        <v>697.6285472724518</v>
       </c>
       <c r="M39" t="n">
-        <v>794.9649454537573</v>
+        <v>771.1410023999607</v>
       </c>
       <c r="N39" t="n">
-        <v>879.7886757205899</v>
+        <v>862.8040107325176</v>
       </c>
       <c r="O39" t="n">
-        <v>1447.878075315542</v>
+        <v>1430.893410327469</v>
       </c>
       <c r="P39" t="n">
-        <v>1977.832355334113</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q39" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446075</v>
       </c>
       <c r="R39" t="n">
         <v>2295.310705434148</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="C40" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="D40" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="E40" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="F40" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="G40" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I40" t="n">
         <v>45.90621410868296</v>
@@ -7362,22 +7362,22 @@
         <v>1458.731569087767</v>
       </c>
       <c r="T40" t="n">
-        <v>1231.050125968798</v>
+        <v>1337.816757442023</v>
       </c>
       <c r="U40" t="n">
-        <v>945.6417132838295</v>
+        <v>1052.408344757055</v>
       </c>
       <c r="V40" t="n">
-        <v>679.6623681046538</v>
+        <v>786.4289995778788</v>
       </c>
       <c r="W40" t="n">
-        <v>396.3319660358313</v>
+        <v>503.0985975090565</v>
       </c>
       <c r="X40" t="n">
-        <v>162.2516438188144</v>
+        <v>269.0182752920396</v>
       </c>
       <c r="Y40" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868296</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8535943834806</v>
+        <v>886.386402904647</v>
       </c>
       <c r="C41" t="n">
-        <v>955.8535943834806</v>
+        <v>886.386402904647</v>
       </c>
       <c r="D41" t="n">
-        <v>955.8535943834806</v>
+        <v>886.386402904647</v>
       </c>
       <c r="E41" t="n">
-        <v>553.2700695000252</v>
+        <v>886.386402904647</v>
       </c>
       <c r="F41" t="n">
-        <v>136.375631030003</v>
+        <v>859.6640338895863</v>
       </c>
       <c r="G41" t="n">
-        <v>136.375631030003</v>
+        <v>447.74290213704</v>
       </c>
       <c r="H41" t="n">
         <v>136.375631030003</v>
@@ -7411,25 +7411,25 @@
         <v>45.90621410868296</v>
       </c>
       <c r="J41" t="n">
-        <v>45.90621410868296</v>
+        <v>180.045002147673</v>
       </c>
       <c r="K41" t="n">
-        <v>513.5301849945522</v>
+        <v>193.2133912454337</v>
       </c>
       <c r="L41" t="n">
-        <v>1081.619584589504</v>
+        <v>761.3027908403853</v>
       </c>
       <c r="M41" t="n">
-        <v>1147.071487927128</v>
+        <v>1329.392190435337</v>
       </c>
       <c r="N41" t="n">
-        <v>1715.16088752208</v>
+        <v>1398.902149443064</v>
       </c>
       <c r="O41" t="n">
-        <v>1772.129250931856</v>
+        <v>1455.87051285284</v>
       </c>
       <c r="P41" t="n">
-        <v>2295.310705434148</v>
+        <v>1979.051967355132</v>
       </c>
       <c r="Q41" t="n">
         <v>2295.310705434148</v>
@@ -7438,25 +7438,25 @@
         <v>2295.310705434148</v>
       </c>
       <c r="S41" t="n">
-        <v>2276.477438212206</v>
+        <v>2157.090651793677</v>
       </c>
       <c r="T41" t="n">
-        <v>2058.412043778618</v>
+        <v>1939.025257360088</v>
       </c>
       <c r="U41" t="n">
-        <v>2058.412043778618</v>
+        <v>1683.371857695443</v>
       </c>
       <c r="V41" t="n">
-        <v>1716.305234482136</v>
+        <v>1683.371857695443</v>
       </c>
       <c r="W41" t="n">
-        <v>1345.306199450424</v>
+        <v>1683.371857695443</v>
       </c>
       <c r="X41" t="n">
-        <v>955.8535943834806</v>
+        <v>1683.371857695443</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.8535943834806</v>
+        <v>1286.881148616044</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>815.3191953951405</v>
+        <v>815.3191953951401</v>
       </c>
       <c r="C42" t="n">
-        <v>664.6649649552326</v>
+        <v>664.6649649552323</v>
       </c>
       <c r="D42" t="n">
-        <v>534.5759975767128</v>
+        <v>534.5759975767127</v>
       </c>
       <c r="E42" t="n">
-        <v>398.1295066876005</v>
+        <v>398.1295066876004</v>
       </c>
       <c r="F42" t="n">
         <v>273.6977005707322</v>
@@ -7484,7 +7484,7 @@
         <v>154.3022099210611</v>
       </c>
       <c r="H42" t="n">
-        <v>72.42079644788464</v>
+        <v>72.42079644788473</v>
       </c>
       <c r="I42" t="n">
         <v>45.90621410868296</v>
@@ -7496,16 +7496,16 @@
         <v>645.4152194583081</v>
       </c>
       <c r="L42" t="n">
-        <v>1213.50461905326</v>
+        <v>1209.402950278949</v>
       </c>
       <c r="M42" t="n">
-        <v>1291.483635965858</v>
+        <v>1282.915405406458</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.57303556081</v>
+        <v>1367.739135673291</v>
       </c>
       <c r="O42" t="n">
-        <v>1922.727310214989</v>
+        <v>1430.89341032747</v>
       </c>
       <c r="P42" t="n">
         <v>1960.847690346041</v>
@@ -7532,10 +7532,10 @@
         <v>1335.736824410583</v>
       </c>
       <c r="X42" t="n">
-        <v>1146.429746760595</v>
+        <v>1146.429746760594</v>
       </c>
       <c r="Y42" t="n">
-        <v>967.1155298361018</v>
+        <v>967.1155298361015</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.90621410868296</v>
+        <v>267.0214197480938</v>
       </c>
       <c r="C43" t="n">
-        <v>45.90621410868296</v>
+        <v>96.81630181408298</v>
       </c>
       <c r="D43" t="n">
-        <v>45.90621410868296</v>
+        <v>96.81630181408298</v>
       </c>
       <c r="E43" t="n">
-        <v>45.90621410868296</v>
+        <v>96.81630181408298</v>
       </c>
       <c r="F43" t="n">
-        <v>45.90621410868296</v>
+        <v>96.81630181408298</v>
       </c>
       <c r="G43" t="n">
         <v>45.90621410868296</v>
@@ -7593,28 +7593,28 @@
         <v>1458.731569087767</v>
       </c>
       <c r="R43" t="n">
-        <v>1359.873062337847</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="S43" t="n">
-        <v>1166.763092385693</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="T43" t="n">
-        <v>933.4237346158411</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="U43" t="n">
-        <v>648.0153219308729</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="V43" t="n">
-        <v>382.0359767516971</v>
+        <v>1192.752223908591</v>
       </c>
       <c r="W43" t="n">
-        <v>98.70557468287478</v>
+        <v>909.4218218397687</v>
       </c>
       <c r="X43" t="n">
-        <v>98.70557468287478</v>
+        <v>675.3414996227517</v>
       </c>
       <c r="Y43" t="n">
-        <v>45.90621410868296</v>
+        <v>452.229438439395</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1287.297960222219</v>
+        <v>841.6652404892079</v>
       </c>
       <c r="C44" t="n">
-        <v>894.1224587251497</v>
+        <v>448.4897389921384</v>
       </c>
       <c r="D44" t="n">
-        <v>894.1224587251497</v>
+        <v>448.4897389921384</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1224587251497</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="F44" t="n">
-        <v>477.2280202551275</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="G44" t="n">
-        <v>65.30688850258116</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="H44" t="n">
-        <v>65.30688850258116</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I44" t="n">
         <v>45.90621410868296</v>
@@ -7654,10 +7654,10 @@
         <v>807.618728679222</v>
       </c>
       <c r="L44" t="n">
-        <v>847.9414249912711</v>
+        <v>1249.805175812575</v>
       </c>
       <c r="M44" t="n">
-        <v>913.3933283288953</v>
+        <v>1315.257079150199</v>
       </c>
       <c r="N44" t="n">
         <v>1384.767038157926</v>
@@ -7681,19 +7681,19 @@
         <v>2077.245311000559</v>
       </c>
       <c r="U44" t="n">
-        <v>2077.245311000559</v>
+        <v>1980.757504576485</v>
       </c>
       <c r="V44" t="n">
-        <v>2077.245311000559</v>
+        <v>1638.650695280004</v>
       </c>
       <c r="W44" t="n">
-        <v>2077.245311000559</v>
+        <v>1638.650695280004</v>
       </c>
       <c r="X44" t="n">
-        <v>1687.792705933616</v>
+        <v>1638.650695280004</v>
       </c>
       <c r="Y44" t="n">
-        <v>1687.792705933616</v>
+        <v>1242.159986200605</v>
       </c>
     </row>
     <row r="45">
@@ -7733,16 +7733,16 @@
         <v>645.4152194583081</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.659905699026</v>
+        <v>1209.402950278949</v>
       </c>
       <c r="M45" t="n">
-        <v>1774.749305293977</v>
+        <v>1282.915405406458</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.57303556081</v>
+        <v>1367.739135673291</v>
       </c>
       <c r="O45" t="n">
-        <v>1922.727310214989</v>
+        <v>1430.89341032747</v>
       </c>
       <c r="P45" t="n">
         <v>1960.847690346041</v>
@@ -7769,10 +7769,10 @@
         <v>1335.736824410583</v>
       </c>
       <c r="X45" t="n">
-        <v>1146.429746760595</v>
+        <v>1146.429746760594</v>
       </c>
       <c r="Y45" t="n">
-        <v>967.115529836102</v>
+        <v>967.1155298361015</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>370.9292531221995</v>
+        <v>216.1113320426937</v>
       </c>
       <c r="C46" t="n">
-        <v>370.9292531221995</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="D46" t="n">
-        <v>370.9292531221995</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="E46" t="n">
-        <v>370.9292531221995</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="F46" t="n">
-        <v>213.6033183351724</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="G46" t="n">
         <v>45.90621410868296</v>
@@ -7830,28 +7830,28 @@
         <v>1458.731569087767</v>
       </c>
       <c r="R46" t="n">
-        <v>1396.860451276364</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.860451276364</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="T46" t="n">
-        <v>1396.860451276364</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="U46" t="n">
-        <v>1111.452038591395</v>
+        <v>1173.74115916535</v>
       </c>
       <c r="V46" t="n">
-        <v>1111.452038591395</v>
+        <v>907.761813986174</v>
       </c>
       <c r="W46" t="n">
-        <v>828.1216365225731</v>
+        <v>624.4314119173516</v>
       </c>
       <c r="X46" t="n">
-        <v>594.0413143055562</v>
+        <v>624.4314119173516</v>
       </c>
       <c r="Y46" t="n">
-        <v>370.9292531221995</v>
+        <v>401.319350733995</v>
       </c>
     </row>
   </sheetData>
@@ -7987,19 +7987,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>529.9809050337502</v>
       </c>
       <c r="N2" t="n">
-        <v>231.5084000173687</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,25 +8057,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>481.8433542881688</v>
       </c>
       <c r="M3" t="n">
-        <v>343.2705513010953</v>
+        <v>666.2147984078489</v>
       </c>
       <c r="N3" t="n">
         <v>659.1997892127036</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8218,25 +8218,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>261.3922131086835</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>330.0081677156154</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8303,10 +8303,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>666.2147984078488</v>
+        <v>666.2147984078489</v>
       </c>
       <c r="N6" t="n">
-        <v>99.52312639393914</v>
+        <v>450.5130999036545</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.3493920757905</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>357.8134772846569</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8543,16 +8543,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>377.8898062911927</v>
+        <v>659.1997892127036</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>455.590093064494</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8698,22 +8698,22 @@
         <v>533.0976800837399</v>
       </c>
       <c r="M11" t="n">
-        <v>507.714642684169</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>503.6155965527525</v>
       </c>
       <c r="O11" t="n">
-        <v>163.2978282218881</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>391.1604225366248</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.7581146425664</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
-        <v>102.5176150018526</v>
+        <v>62.9163925843997</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>20.30774169145049</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>521.0869411927351</v>
       </c>
       <c r="M12" t="n">
-        <v>499.5726711792349</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4.415166064149503</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>510.0354797381543</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.03536674667771</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
-        <v>71.01380490566048</v>
+        <v>66.87070513362978</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,25 +8929,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>353.1688119244117</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>533.0976800837398</v>
       </c>
       <c r="M14" t="n">
-        <v>507.714642684169</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>503.6155965527525</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>516.2838749345203</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>191.869748013674</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9008,28 +9008,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>516.943841420704</v>
       </c>
       <c r="M15" t="n">
-        <v>499.5726711792349</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>488.1471407354736</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>455.7479455845993</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
-        <v>53.8575776449813</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,25 +9166,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>507.714642684169</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>181.7212451763472</v>
+        <v>380.5996483971344</v>
       </c>
       <c r="O17" t="n">
-        <v>516.2838749345203</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.7581146425664</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9248,7 +9248,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>521.0869411927351</v>
+        <v>6.908361682549675</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.6983296098952</v>
+        <v>510.0354797381543</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.03536674667771</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>53.8575776449813</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,22 +9406,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>533.0976800837399</v>
+        <v>409.5838394910842</v>
       </c>
       <c r="M20" t="n">
-        <v>507.714642684169</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>503.6155965527525</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>516.2838749345203</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>214.6571652819072</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>62.9163925843997</v>
@@ -9482,25 +9482,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>521.0869411927351</v>
+        <v>521.0869411927353</v>
       </c>
       <c r="M21" t="n">
-        <v>240.960731353365</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>488.1471407354736</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>492.6588193062711</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.03536674667771</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>13.35238603422147</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9646,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>473.8086003011653</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>516.2838749345203</v>
+        <v>380.5996483971347</v>
       </c>
       <c r="P23" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>11.7581146425664</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
-        <v>62.9163925843997</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>131.3630195229019</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>521.0869411927353</v>
       </c>
       <c r="M24" t="n">
-        <v>499.5726711792349</v>
+        <v>492.6588193062711</v>
       </c>
       <c r="N24" t="n">
-        <v>488.1471407354736</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>53.8575776449813</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>163.2978282218882</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>533.09768008374</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>507.7146426841692</v>
+        <v>507.7146426841691</v>
       </c>
       <c r="N26" t="n">
-        <v>503.6155965527527</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>418.1530717414354</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.7581146425664</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>102.5176150018526</v>
+        <v>62.9163925843997</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,19 +9959,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>521.0869411927353</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>6.908361682550108</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>510.0354797381544</v>
       </c>
       <c r="P27" t="n">
-        <v>492.6588193062711</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10114,7 +10114,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>505.666843611017</v>
+        <v>409.5838394910842</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>195.5271588920655</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>62.9163925843997</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>20.36486500277901</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>521.0869411927354</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>6.908361682550108</v>
       </c>
       <c r="O30" t="n">
         <v>510.0354797381544</v>
@@ -10211,10 +10211,10 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.03536674667771</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>53.8575776449813</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>533.09768008374</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>206.5564615177324</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.5996483971347</v>
       </c>
       <c r="P32" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>11.7581146425664</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>62.9163925843997</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>20.30774169145049</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>521.0869411927353</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>492.6588193062711</v>
       </c>
       <c r="N33" t="n">
-        <v>412.6228930509511</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>510.0354797381544</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.03536674667771</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>53.8575776449813</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>182.1594324442597</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>503.6155965527527</v>
+        <v>369.9826170736315</v>
       </c>
       <c r="O35" t="n">
         <v>516.2838749345203</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>11.7581146425664</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10670,25 +10670,25 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>521.0869411927353</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>6.908361682550108</v>
       </c>
       <c r="O36" t="n">
-        <v>510.0354797381543</v>
+        <v>510.0354797381544</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.5001356967206</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>53.8575776449813</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>13.35238603422147</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>127.4223854785958</v>
+        <v>420.2008708145876</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>503.6155965527527</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5176150018526</v>
+        <v>62.9163925843997</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>20.30774169145049</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10910,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>200.4588623828161</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>6.908361682549653</v>
       </c>
       <c r="O39" t="n">
         <v>510.0354797381544</v>
@@ -10925,7 +10925,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>53.8575776449813</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>13.35238603422147</v>
+        <v>148.8461113261306</v>
       </c>
       <c r="K41" t="n">
-        <v>459.0460422102107</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>533.09768008374</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>507.7146426841692</v>
       </c>
       <c r="N41" t="n">
-        <v>503.6155965527527</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>11.7581146425664</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>62.9163925843997</v>
@@ -11144,19 +11144,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>521.0869411927353</v>
+        <v>516.9438414207044</v>
       </c>
       <c r="M42" t="n">
-        <v>4.511678570797386</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>488.1471407354737</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11302,13 +11302,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>405.9229806275799</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>405.9229806275799</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>516.2838749345203</v>
@@ -11381,10 +11381,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>514.1730893197714</v>
+        <v>516.9438414207044</v>
       </c>
       <c r="M45" t="n">
-        <v>499.572671179235</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>370.1791422889574</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>44.83424503768202</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22634,7 +22634,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>68.24173321366909</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>68.24173321366887</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22710,7 +22710,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>99.41805493876322</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -22758,19 +22758,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -22795,16 +22795,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>76.52798853938143</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>16.95173055715577</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22877,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>19.34835176546162</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>68.24173321366955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22950,22 +22950,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>22.31857408727987</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>116.4854777676763</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23023,19 +23023,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>23.11291023571811</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>8.110176131003698</v>
       </c>
     </row>
     <row r="9">
@@ -23111,7 +23111,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>68.24173321366956</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23159,7 +23159,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>44.56386054275279</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,10 +23238,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23260,7 +23260,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>284.3161446867764</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>407.8019204350209</v>
+        <v>27.39028961776233</v>
       </c>
       <c r="H11" t="n">
         <v>308.2535983959666</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>136.8378531040666</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
@@ -23436,7 +23436,7 @@
         <v>149.021494497001</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1819754130301</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>97.86992168242006</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.6180438334333</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5543285581185</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>62.91060844458025</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23506,16 +23506,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>66.36351281718572</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>407.8019204350209</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>308.2535983959666</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>89.56472275210685</v>
+        <v>60.17737884413553</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>136.8378531040666</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>215.8847404892529</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0968656679989</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>162.9156138933147</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>282.5543285581185</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23721,7 +23721,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>68.09912892060146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>243.0277550807251</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>308.2535983959666</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>215.8847404892529</v>
       </c>
       <c r="U17" t="n">
-        <v>32.33359104092492</v>
+        <v>253.0968656679989</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -23800,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>146.8099495370431</v>
       </c>
       <c r="G19" t="n">
         <v>166.0201331842246</v>
       </c>
       <c r="H19" t="n">
-        <v>149.021494497001</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1819754130301</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>97.86992168242006</v>
       </c>
       <c r="S19" t="n">
         <v>191.1788702526329</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7350402329112</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>407.8019204350209</v>
       </c>
       <c r="H20" t="n">
-        <v>308.2535983959666</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>89.56472275210685</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>37.64784337043827</v>
       </c>
       <c r="T20" t="n">
-        <v>122.9737670858548</v>
+        <v>215.8847404892529</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0968656679989</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>101.8054149980605</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24141,7 +24141,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0201331842246</v>
+        <v>8.789467587803273</v>
       </c>
       <c r="H22" t="n">
         <v>149.021494497001</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>97.86992168242006</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>191.1788702526329</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>231.0059641921533</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24211,22 +24211,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>162.7769754811406</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>175.39274277454</v>
       </c>
       <c r="H23" t="n">
-        <v>308.2535983959666</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>89.56472275210685</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>136.8378531040666</v>
       </c>
       <c r="T23" t="n">
-        <v>215.8847404892529</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0968656679989</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -24417,7 +24417,7 @@
         <v>191.1788702526329</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>111.3003006628669</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>111.3003006628669</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>177.2531657808814</v>
+        <v>17.79220403815918</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>136.8378531040666</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>215.8847404892529</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0968656679989</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -24612,16 +24612,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0201331842246</v>
       </c>
       <c r="H28" t="n">
         <v>149.021494497001</v>
       </c>
       <c r="I28" t="n">
-        <v>96.36817993560194</v>
+        <v>115.1819754130301</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>97.86992168242006</v>
       </c>
       <c r="S28" t="n">
-        <v>191.1788702526329</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>231.0059641921533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5543285581185</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>203.2807808617695</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -24691,10 +24691,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>407.8019204350209</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>308.2535983959666</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.1700458435241</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>252.2114262209976</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24852,7 +24852,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0201331842246</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>149.021494497001</v>
@@ -24888,25 +24888,25 @@
         <v>97.86992168242006</v>
       </c>
       <c r="S31" t="n">
-        <v>191.1788702526329</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>231.0059641921533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5543285581185</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>26.3009185603772</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>111.3003006628669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>396.6840302771863</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>407.8019204350209</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>136.8378531040666</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>242.632035709768</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>35.63517800541719</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0201331842246</v>
       </c>
       <c r="H34" t="n">
-        <v>149.021494497001</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1819754130301</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>97.86992168242006</v>
       </c>
       <c r="S34" t="n">
-        <v>191.1788702526329</v>
+        <v>37.05944108639741</v>
       </c>
       <c r="T34" t="n">
         <v>231.0059641921533</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5543285581185</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25207,16 +25207,16 @@
         <v>136.8378531040666</v>
       </c>
       <c r="T35" t="n">
-        <v>215.8847404892529</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0968656679989</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>79.73616112316449</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>210.0320260768993</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1819754130301</v>
+        <v>16.7627627160016</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>97.86992168242006</v>
       </c>
       <c r="S37" t="n">
-        <v>191.1788702526329</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>231.0059641921533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5543285581185</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>184.6566725024181</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>170.43400446774</v>
       </c>
       <c r="H38" t="n">
         <v>308.2535983959666</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>89.56472275210685</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>210.8766103500952</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>149.021494497001</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1819754130301</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>191.1788702526329</v>
       </c>
       <c r="T40" t="n">
-        <v>5.601335504374134</v>
+        <v>111.3003006628669</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -25636,16 +25636,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>386.270348760412</v>
       </c>
       <c r="G41" t="n">
-        <v>407.8019204350209</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>308.2535983959666</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>118.1929185543443</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0968656679989</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25800,7 +25800,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0201331842246</v>
+        <v>115.6191463558785</v>
       </c>
       <c r="H43" t="n">
         <v>149.021494497001</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>97.86992168242006</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>191.1788702526329</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>231.0059641921533</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5543285581185</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>168.6095736030732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,19 +25873,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>407.8019204350209</v>
       </c>
       <c r="H44" t="n">
         <v>308.2535983959666</v>
       </c>
       <c r="I44" t="n">
-        <v>70.35805510214763</v>
+        <v>89.56472275210685</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0968656679989</v>
+        <v>157.5739373081653</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26034,10 +26034,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0201331842246</v>
       </c>
       <c r="H46" t="n">
         <v>149.021494497001</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>36.61751504913098</v>
+        <v>97.86992168242006</v>
       </c>
       <c r="S46" t="n">
         <v>191.1788702526329</v>
@@ -26079,16 +26079,16 @@
         <v>231.0059641921533</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.4138227349259296</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>633173.7058952438</v>
+        <v>633173.7058952434</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>633173.7058952432</v>
+        <v>633173.7058952434</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>633173.7058952432</v>
+        <v>633173.7058952434</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>630680.6433161243</v>
+        <v>630680.6433161241</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>630680.6433161241</v>
+        <v>630680.6433161242</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>630680.643316124</v>
+        <v>630680.6433161242</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>630680.6433161242</v>
+        <v>630680.643316124</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>630680.6433161242</v>
+        <v>630680.6433161241</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>630680.6433161241</v>
+        <v>630680.643316124</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>630680.6433161243</v>
+        <v>630680.643316124</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>630680.6433161243</v>
+        <v>630680.6433161241</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>630680.6433161241</v>
+        <v>630680.6433161242</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>243866.0237383389</v>
+        <v>243866.023738339</v>
       </c>
       <c r="C2" t="n">
-        <v>243866.0237383389</v>
+        <v>243866.023738339</v>
       </c>
       <c r="D2" t="n">
-        <v>243866.0237383389</v>
+        <v>243866.023738339</v>
       </c>
       <c r="E2" t="n">
         <v>259106.0638987702</v>
       </c>
       <c r="F2" t="n">
-        <v>259106.0638987701</v>
+        <v>259106.0638987703</v>
       </c>
       <c r="G2" t="n">
         <v>259106.0638987701</v>
@@ -26334,10 +26334,10 @@
         <v>259106.0638987702</v>
       </c>
       <c r="I2" t="n">
+        <v>259106.0638987703</v>
+      </c>
+      <c r="J2" t="n">
         <v>259106.0638987702</v>
-      </c>
-      <c r="J2" t="n">
-        <v>259106.0638987701</v>
       </c>
       <c r="K2" t="n">
         <v>259106.0638987703</v>
@@ -26346,13 +26346,13 @@
         <v>259106.0638987702</v>
       </c>
       <c r="M2" t="n">
-        <v>259106.0638987701</v>
+        <v>259106.0638987703</v>
       </c>
       <c r="N2" t="n">
-        <v>259106.0638987703</v>
+        <v>259106.0638987702</v>
       </c>
       <c r="O2" t="n">
-        <v>259106.0638987703</v>
+        <v>259106.0638987702</v>
       </c>
       <c r="P2" t="n">
         <v>259106.0638987702</v>
@@ -26429,19 +26429,19 @@
         <v>65825.49656193047</v>
       </c>
       <c r="F4" t="n">
+        <v>65825.49656193046</v>
+      </c>
+      <c r="G4" t="n">
+        <v>65825.49656193046</v>
+      </c>
+      <c r="H4" t="n">
         <v>65825.49656193047</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>65825.49656193047</v>
       </c>
-      <c r="H4" t="n">
-        <v>65825.49656193046</v>
-      </c>
-      <c r="I4" t="n">
-        <v>65825.49656193044</v>
-      </c>
       <c r="J4" t="n">
-        <v>65825.49656193049</v>
+        <v>65825.49656193047</v>
       </c>
       <c r="K4" t="n">
         <v>65825.49656193047</v>
@@ -26453,13 +26453,13 @@
         <v>65825.49656193049</v>
       </c>
       <c r="N4" t="n">
-        <v>65825.49656193047</v>
+        <v>65825.49656193046</v>
       </c>
       <c r="O4" t="n">
-        <v>65825.49656193047</v>
+        <v>65825.49656193049</v>
       </c>
       <c r="P4" t="n">
-        <v>65825.49656193047</v>
+        <v>65825.49656193046</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>68516.32272259906</v>
       </c>
       <c r="C5" t="n">
-        <v>68516.32272259904</v>
+        <v>68516.32272259906</v>
       </c>
       <c r="D5" t="n">
-        <v>68516.32272259904</v>
+        <v>68516.32272259906</v>
       </c>
       <c r="E5" t="n">
         <v>41554.4078117436</v>
@@ -26487,10 +26487,10 @@
         <v>41554.4078117436</v>
       </c>
       <c r="H5" t="n">
-        <v>41554.4078117436</v>
+        <v>41554.40781174361</v>
       </c>
       <c r="I5" t="n">
-        <v>41554.4078117436</v>
+        <v>41554.40781174361</v>
       </c>
       <c r="J5" t="n">
         <v>41554.40781174361</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-118504.1116475547</v>
+        <v>-119198.9515024049</v>
       </c>
       <c r="C6" t="n">
-        <v>73798.74073674732</v>
+        <v>73103.90088189709</v>
       </c>
       <c r="D6" t="n">
-        <v>73798.74073674732</v>
+        <v>73103.90088189715</v>
       </c>
       <c r="E6" t="n">
-        <v>-93926.65688196832</v>
+        <v>-94552.22382699835</v>
       </c>
       <c r="F6" t="n">
-        <v>151726.1595250961</v>
+        <v>151100.5925800662</v>
       </c>
       <c r="G6" t="n">
-        <v>151726.159525096</v>
+        <v>151100.592580066</v>
       </c>
       <c r="H6" t="n">
-        <v>151726.1595250961</v>
+        <v>151100.5925800661</v>
       </c>
       <c r="I6" t="n">
-        <v>151726.1595250962</v>
+        <v>151100.5925800661</v>
       </c>
       <c r="J6" t="n">
-        <v>1587.59097194294</v>
+        <v>962.0240269129749</v>
       </c>
       <c r="K6" t="n">
-        <v>151726.1595250962</v>
+        <v>151100.5925800662</v>
       </c>
       <c r="L6" t="n">
-        <v>151726.1595250962</v>
+        <v>151100.5925800661</v>
       </c>
       <c r="M6" t="n">
-        <v>151726.159525096</v>
+        <v>151100.5925800661</v>
       </c>
       <c r="N6" t="n">
-        <v>151726.1595250962</v>
+        <v>151100.592580066</v>
       </c>
       <c r="O6" t="n">
-        <v>151726.1595250962</v>
+        <v>151100.5925800661</v>
       </c>
       <c r="P6" t="n">
-        <v>151726.1595250961</v>
+        <v>151100.5925800661</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>573.827676358537</v>
       </c>
       <c r="C4" t="n">
-        <v>573.8276763585369</v>
+        <v>573.827676358537</v>
       </c>
       <c r="D4" t="n">
-        <v>573.8276763585369</v>
+        <v>573.827676358537</v>
       </c>
       <c r="E4" t="n">
         <v>573.8276763585369</v>
@@ -26807,10 +26807,10 @@
         <v>573.8276763585369</v>
       </c>
       <c r="H4" t="n">
-        <v>573.8276763585369</v>
+        <v>573.827676358537</v>
       </c>
       <c r="I4" t="n">
-        <v>573.8276763585369</v>
+        <v>573.827676358537</v>
       </c>
       <c r="J4" t="n">
         <v>573.827676358537</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>573.8276763585371</v>
+        <v>573.827676358537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34707,19 +34707,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>380.255853436023</v>
       </c>
       <c r="N2" t="n">
-        <v>82.38990867958461</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>391.7830074312506</v>
       </c>
       <c r="M3" t="n">
-        <v>250.8834292517834</v>
+        <v>573.827676358537</v>
       </c>
       <c r="N3" t="n">
         <v>573.827676358537</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>111.6671615109562</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>180.444330291519</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35023,10 +35023,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>573.8276763585369</v>
+        <v>573.827676358537</v>
       </c>
       <c r="N6" t="n">
-        <v>14.15101353977248</v>
+        <v>365.1409870494878</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.66955413344436</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>204.5653075541652</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35193,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>292.5176934370261</v>
+        <v>573.827676358537</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>362.9025341756051</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,22 +35418,22 @@
         <v>573.8276763585369</v>
       </c>
       <c r="M11" t="n">
-        <v>573.8276763585369</v>
+        <v>66.1130336743679</v>
       </c>
       <c r="N11" t="n">
         <v>573.8276763585369</v>
       </c>
       <c r="O11" t="n">
-        <v>220.8416296459047</v>
+        <v>57.54380142401664</v>
       </c>
       <c r="P11" t="n">
-        <v>26.46013091136811</v>
+        <v>417.6205534479929</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R11" t="n">
-        <v>39.6012224174529</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>176.3942734395873</v>
       </c>
       <c r="K12" t="n">
         <v>429.170378428721</v>
       </c>
       <c r="L12" t="n">
-        <v>52.74073516580172</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="M12" t="n">
-        <v>573.8276763585369</v>
+        <v>74.25500517930196</v>
       </c>
       <c r="N12" t="n">
-        <v>90.09570168721282</v>
+        <v>85.68053562306332</v>
       </c>
       <c r="O12" t="n">
-        <v>573.8276763585369</v>
+        <v>63.79219662038268</v>
       </c>
       <c r="P12" t="n">
         <v>535.3073535541126</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>320.6852021212469</v>
       </c>
       <c r="R12" t="n">
-        <v>17.15622726067918</v>
+        <v>13.01312748864848</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>250.4383336342136</v>
       </c>
       <c r="K14" t="n">
-        <v>13.30140312905121</v>
+        <v>366.4702150534629</v>
       </c>
       <c r="L14" t="n">
-        <v>40.72999627479706</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="M14" t="n">
-        <v>573.8276763585369</v>
+        <v>66.1130336743679</v>
       </c>
       <c r="N14" t="n">
-        <v>573.8276763585369</v>
+        <v>70.21207980578441</v>
       </c>
       <c r="O14" t="n">
-        <v>573.8276763585369</v>
+        <v>57.54380142401664</v>
       </c>
       <c r="P14" t="n">
-        <v>26.46013091136811</v>
+        <v>528.466115658881</v>
       </c>
       <c r="Q14" t="n">
-        <v>180.1116333711076</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R14" t="n">
         <v>39.6012224174529</v>
@@ -35728,28 +35728,28 @@
         <v>176.3942734395873</v>
       </c>
       <c r="K15" t="n">
-        <v>16.60460868909834</v>
+        <v>429.170378428721</v>
       </c>
       <c r="L15" t="n">
-        <v>52.74073516580172</v>
+        <v>569.6845765865057</v>
       </c>
       <c r="M15" t="n">
-        <v>573.8276763585369</v>
+        <v>74.25500517930196</v>
       </c>
       <c r="N15" t="n">
-        <v>573.8276763585369</v>
+        <v>85.68053562306332</v>
       </c>
       <c r="O15" t="n">
-        <v>519.540142204982</v>
+        <v>63.79219662038268</v>
       </c>
       <c r="P15" t="n">
-        <v>38.50543447581072</v>
+        <v>535.3073535541126</v>
       </c>
       <c r="Q15" t="n">
         <v>320.6852021212469</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>17.15622726067918</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>250.4383336342136</v>
       </c>
       <c r="K17" t="n">
-        <v>13.30140312905121</v>
+        <v>518.9682467400683</v>
       </c>
       <c r="L17" t="n">
         <v>40.72999627479706</v>
       </c>
       <c r="M17" t="n">
-        <v>573.8276763585369</v>
+        <v>66.1130336743679</v>
       </c>
       <c r="N17" t="n">
-        <v>251.9333249821316</v>
+        <v>450.8117282029188</v>
       </c>
       <c r="O17" t="n">
-        <v>573.8276763585369</v>
+        <v>57.54380142401664</v>
       </c>
       <c r="P17" t="n">
         <v>528.466115658881</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R17" t="n">
         <v>39.6012224174529</v>
@@ -35968,7 +35968,7 @@
         <v>429.170378428721</v>
       </c>
       <c r="L18" t="n">
-        <v>573.8276763585369</v>
+        <v>59.6490968483514</v>
       </c>
       <c r="M18" t="n">
         <v>74.25500517930196</v>
@@ -35977,16 +35977,16 @@
         <v>85.68053562306332</v>
       </c>
       <c r="O18" t="n">
-        <v>397.4905262302779</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="P18" t="n">
         <v>535.3073535541126</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>320.6852021212469</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>17.15622726067918</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,22 +36126,22 @@
         <v>13.30140312905121</v>
       </c>
       <c r="L20" t="n">
-        <v>573.8276763585369</v>
+        <v>450.3138357658812</v>
       </c>
       <c r="M20" t="n">
-        <v>573.8276763585369</v>
+        <v>66.1130336743679</v>
       </c>
       <c r="N20" t="n">
-        <v>573.8276763585369</v>
+        <v>70.21207980578441</v>
       </c>
       <c r="O20" t="n">
-        <v>57.54380142401664</v>
+        <v>573.827676358537</v>
       </c>
       <c r="P20" t="n">
-        <v>26.46013091136811</v>
+        <v>528.466115658881</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.8990506393408</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>176.3942734395873</v>
       </c>
       <c r="K21" t="n">
-        <v>16.60460868909834</v>
+        <v>429.170378428721</v>
       </c>
       <c r="L21" t="n">
-        <v>573.8276763585369</v>
+        <v>573.827676358537</v>
       </c>
       <c r="M21" t="n">
-        <v>315.215736532667</v>
+        <v>74.25500517930196</v>
       </c>
       <c r="N21" t="n">
-        <v>573.8276763585369</v>
+        <v>85.68053562306332</v>
       </c>
       <c r="O21" t="n">
-        <v>63.79219662038268</v>
+        <v>556.4510159266538</v>
       </c>
       <c r="P21" t="n">
-        <v>535.3073535541126</v>
+        <v>38.50543447581072</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>320.6852021212469</v>
       </c>
       <c r="R21" t="n">
         <v>17.15622726067918</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>250.4383336342136</v>
       </c>
       <c r="K23" t="n">
         <v>518.9682467400683</v>
@@ -36366,22 +36366,22 @@
         <v>40.72999627479706</v>
       </c>
       <c r="M23" t="n">
-        <v>539.9216339755332</v>
+        <v>66.1130336743679</v>
       </c>
       <c r="N23" t="n">
         <v>70.21207980578441</v>
       </c>
       <c r="O23" t="n">
-        <v>573.8276763585369</v>
+        <v>438.1434498211514</v>
       </c>
       <c r="P23" t="n">
         <v>528.466115658881</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>39.6012224174529</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>111.0552778314514</v>
+        <v>176.3942734395873</v>
       </c>
       <c r="K24" t="n">
-        <v>16.60460868909834</v>
+        <v>429.170378428721</v>
       </c>
       <c r="L24" t="n">
-        <v>573.8276763585369</v>
+        <v>573.827676358537</v>
       </c>
       <c r="M24" t="n">
-        <v>573.8276763585369</v>
+        <v>566.9138244855731</v>
       </c>
       <c r="N24" t="n">
-        <v>573.8276763585369</v>
+        <v>85.68053562306332</v>
       </c>
       <c r="O24" t="n">
         <v>63.79219662038268</v>
@@ -36460,7 +36460,7 @@
         <v>320.6852021212469</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>17.15622726067918</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>250.4383336342136</v>
       </c>
       <c r="K26" t="n">
-        <v>176.5992313509394</v>
+        <v>13.30140312905121</v>
       </c>
       <c r="L26" t="n">
-        <v>573.827676358537</v>
+        <v>40.72999627479706</v>
       </c>
       <c r="M26" t="n">
         <v>573.827676358537</v>
       </c>
       <c r="N26" t="n">
-        <v>573.827676358537</v>
+        <v>70.21207980578441</v>
       </c>
       <c r="O26" t="n">
-        <v>57.54380142401664</v>
+        <v>475.6968731654521</v>
       </c>
       <c r="P26" t="n">
-        <v>26.46013091136811</v>
+        <v>528.466115658881</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R26" t="n">
-        <v>39.6012224174529</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>429.170378428721</v>
       </c>
       <c r="L27" t="n">
-        <v>573.827676358537</v>
+        <v>52.74073516580172</v>
       </c>
       <c r="M27" t="n">
         <v>74.25500517930196</v>
       </c>
       <c r="N27" t="n">
-        <v>85.68053562306332</v>
+        <v>92.58889730561343</v>
       </c>
       <c r="O27" t="n">
-        <v>63.79219662038268</v>
+        <v>573.827676358537</v>
       </c>
       <c r="P27" t="n">
-        <v>531.1642537820818</v>
+        <v>535.3073535541126</v>
       </c>
       <c r="Q27" t="n">
         <v>320.6852021212469</v>
@@ -36834,7 +36834,7 @@
         <v>250.4383336342136</v>
       </c>
       <c r="K29" t="n">
-        <v>518.9682467400683</v>
+        <v>422.8852426201354</v>
       </c>
       <c r="L29" t="n">
         <v>40.72999627479706</v>
@@ -36852,10 +36852,10 @@
         <v>528.466115658881</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.7690442494991</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R29" t="n">
-        <v>39.6012224174529</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.05712331132851852</v>
+        <v>176.3942734395873</v>
       </c>
       <c r="K30" t="n">
         <v>429.170378428721</v>
       </c>
       <c r="L30" t="n">
-        <v>573.827676358537</v>
+        <v>52.74073516580172</v>
       </c>
       <c r="M30" t="n">
         <v>74.25500517930196</v>
       </c>
       <c r="N30" t="n">
-        <v>85.68053562306332</v>
+        <v>92.58889730561343</v>
       </c>
       <c r="O30" t="n">
         <v>573.827676358537</v>
@@ -36931,10 +36931,10 @@
         <v>535.3073535541126</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>320.6852021212469</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>17.15622726067918</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>518.9682467400683</v>
       </c>
       <c r="L32" t="n">
-        <v>573.827676358537</v>
+        <v>40.72999627479706</v>
       </c>
       <c r="M32" t="n">
         <v>66.1130336743679</v>
       </c>
       <c r="N32" t="n">
-        <v>276.7685413235168</v>
+        <v>70.21207980578441</v>
       </c>
       <c r="O32" t="n">
-        <v>57.54380142401664</v>
+        <v>438.1434498211514</v>
       </c>
       <c r="P32" t="n">
         <v>528.466115658881</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>39.6012224174529</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>176.3942734395873</v>
       </c>
       <c r="K33" t="n">
-        <v>16.60460868909834</v>
+        <v>429.170378428721</v>
       </c>
       <c r="L33" t="n">
         <v>573.827676358537</v>
       </c>
       <c r="M33" t="n">
-        <v>74.25500517930196</v>
+        <v>566.9138244855731</v>
       </c>
       <c r="N33" t="n">
-        <v>498.3034286740144</v>
+        <v>85.68053562306332</v>
       </c>
       <c r="O33" t="n">
-        <v>573.827676358537</v>
+        <v>63.79219662038268</v>
       </c>
       <c r="P33" t="n">
-        <v>535.3073535541126</v>
+        <v>38.50543447581072</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>320.6852021212469</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>17.15622726067918</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>250.4383336342136</v>
       </c>
       <c r="K35" t="n">
-        <v>518.9682467400683</v>
+        <v>13.30140312905121</v>
       </c>
       <c r="L35" t="n">
         <v>40.72999627479706</v>
       </c>
       <c r="M35" t="n">
-        <v>248.2724661186276</v>
+        <v>66.1130336743679</v>
       </c>
       <c r="N35" t="n">
-        <v>573.827676358537</v>
+        <v>440.1946968794159</v>
       </c>
       <c r="O35" t="n">
         <v>573.827676358537</v>
       </c>
       <c r="P35" t="n">
-        <v>26.46013091136811</v>
+        <v>528.466115658881</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R35" t="n">
         <v>39.6012224174529</v>
@@ -37390,25 +37390,25 @@
         <v>429.170378428721</v>
       </c>
       <c r="L36" t="n">
-        <v>573.827676358537</v>
+        <v>52.74073516580172</v>
       </c>
       <c r="M36" t="n">
         <v>74.25500517930196</v>
       </c>
       <c r="N36" t="n">
-        <v>85.68053562306332</v>
+        <v>92.58889730561343</v>
       </c>
       <c r="O36" t="n">
         <v>573.827676358537</v>
       </c>
       <c r="P36" t="n">
-        <v>38.50543447581072</v>
+        <v>535.3073535541126</v>
       </c>
       <c r="Q36" t="n">
-        <v>320.4647689500429</v>
+        <v>320.6852021212469</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>17.15622726067918</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>250.4383336342136</v>
       </c>
       <c r="K38" t="n">
         <v>518.9682467400683</v>
       </c>
       <c r="L38" t="n">
-        <v>168.1523817533929</v>
+        <v>460.9308670893846</v>
       </c>
       <c r="M38" t="n">
         <v>66.1130336743679</v>
       </c>
       <c r="N38" t="n">
-        <v>573.827676358537</v>
+        <v>70.21207980578441</v>
       </c>
       <c r="O38" t="n">
         <v>57.54380142401664</v>
@@ -37566,7 +37566,7 @@
         <v>319.4532707868849</v>
       </c>
       <c r="R38" t="n">
-        <v>39.6012224174529</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>176.3942734395873</v>
       </c>
       <c r="K39" t="n">
         <v>429.170378428721</v>
@@ -37630,10 +37630,10 @@
         <v>52.74073516580172</v>
       </c>
       <c r="M39" t="n">
-        <v>274.713867562118</v>
+        <v>74.25500517930196</v>
       </c>
       <c r="N39" t="n">
-        <v>85.68053562306332</v>
+        <v>92.58889730561297</v>
       </c>
       <c r="O39" t="n">
         <v>573.827676358537</v>
@@ -37645,7 +37645,7 @@
         <v>320.6852021212469</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>17.15622726067918</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>135.4937252919092</v>
       </c>
       <c r="K41" t="n">
-        <v>472.3474453392619</v>
+        <v>13.30140312905121</v>
       </c>
       <c r="L41" t="n">
         <v>573.827676358537</v>
       </c>
       <c r="M41" t="n">
-        <v>66.1130336743679</v>
+        <v>573.827676358537</v>
       </c>
       <c r="N41" t="n">
-        <v>573.827676358537</v>
+        <v>70.21207980578441</v>
       </c>
       <c r="O41" t="n">
         <v>57.54380142401664</v>
@@ -37800,7 +37800,7 @@
         <v>528.466115658881</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>429.170378428721</v>
       </c>
       <c r="L42" t="n">
-        <v>573.827676358537</v>
+        <v>569.6845765865062</v>
       </c>
       <c r="M42" t="n">
-        <v>78.76668375009935</v>
+        <v>74.25500517930196</v>
       </c>
       <c r="N42" t="n">
-        <v>573.827676358537</v>
+        <v>85.68053562306332</v>
       </c>
       <c r="O42" t="n">
         <v>63.79219662038268</v>
       </c>
       <c r="P42" t="n">
-        <v>38.50543447581072</v>
+        <v>535.3073535541126</v>
       </c>
       <c r="Q42" t="n">
         <v>320.6852021212469</v>
@@ -38022,13 +38022,13 @@
         <v>518.9682467400683</v>
       </c>
       <c r="L44" t="n">
-        <v>40.72999627479706</v>
+        <v>446.652976902377</v>
       </c>
       <c r="M44" t="n">
         <v>66.1130336743679</v>
       </c>
       <c r="N44" t="n">
-        <v>476.1350604333643</v>
+        <v>70.21207980578441</v>
       </c>
       <c r="O44" t="n">
         <v>573.827676358537</v>
@@ -38101,10 +38101,10 @@
         <v>429.170378428721</v>
       </c>
       <c r="L45" t="n">
-        <v>566.9138244855732</v>
+        <v>569.6845765865062</v>
       </c>
       <c r="M45" t="n">
-        <v>573.827676358537</v>
+        <v>74.25500517930196</v>
       </c>
       <c r="N45" t="n">
         <v>85.68053562306332</v>
@@ -38113,7 +38113,7 @@
         <v>63.79219662038268</v>
       </c>
       <c r="P45" t="n">
-        <v>38.50543447581072</v>
+        <v>535.3073535541126</v>
       </c>
       <c r="Q45" t="n">
         <v>320.6852021212469</v>
